--- a/src/test/resources/timetable-parser/udsu/udsu-0.xlsx
+++ b/src/test/resources/timetable-parser/udsu/udsu-0.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="01.09.22-03.09.22" sheetId="1" r:id="rId1"/>
-    <sheet name="03.10.22-08.10.22" sheetId="3" r:id="rId2"/>
+    <sheet name="03.10.22-08.10.22 " sheetId="3" r:id="rId2"/>
     <sheet name="16.01.23-21.01.23" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="309">
   <si>
     <r>
       <rPr>
@@ -1377,6 +1377,21 @@
   </si>
   <si>
     <t>с 03.10.2022-08.10.2022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тройникова Е.В. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>https://b84931.vr.mirapolis.ru/mira/miravr/5523698180</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2308,32 +2323,6 @@
     <xf numFmtId="0" fontId="36" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2368,26 +2357,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2398,6 +2411,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2406,15 +2422,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2704,8 +2719,8 @@
   </sheetPr>
   <dimension ref="A1:S952"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2722,23 +2737,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="63" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2" t="s">
         <v>2</v>
@@ -2756,15 +2771,15 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
         <v>5</v>
@@ -2776,70 +2791,70 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="116"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="104"/>
     </row>
     <row r="4" spans="1:19" ht="64.5" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="105" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="122"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="123" t="s">
+      <c r="N4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="122"/>
+      <c r="O4" s="110"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="124" t="s">
+      <c r="Q4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="127" t="s">
+      <c r="R4" s="115" t="s">
         <v>7</v>
       </c>
       <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" ht="78.75" customHeight="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="118"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
@@ -2876,15 +2891,15 @@
       <c r="O5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="108"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="116"/>
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="119"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -2897,19 +2912,19 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="128"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="114"/>
+      <c r="R6" s="117"/>
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="56.25" customHeight="1">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="20"/>
@@ -2926,19 +2941,19 @@
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="P7" s="98" t="s">
+      <c r="P7" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="100" t="s">
+      <c r="Q7" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="R7" s="107"/>
+      <c r="R7" s="125"/>
       <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="26"/>
@@ -2953,17 +2968,17 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="108"/>
+      <c r="P8" s="119"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="116"/>
       <c r="S8" s="24"/>
     </row>
     <row r="9" spans="1:19" ht="37.5">
-      <c r="A9" s="104"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="20"/>
@@ -2984,19 +2999,19 @@
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="98" t="s">
+      <c r="P9" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="100" t="s">
+      <c r="Q9" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="108"/>
+      <c r="R9" s="116"/>
       <c r="S9" s="24"/>
     </row>
     <row r="10" spans="1:19" ht="18.75">
-      <c r="A10" s="104"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="26" t="s">
@@ -3015,17 +3030,17 @@
       </c>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="108"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="116"/>
       <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" ht="56.25">
-      <c r="A11" s="104"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="20"/>
@@ -3046,19 +3061,19 @@
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
-      <c r="P11" s="98" t="s">
+      <c r="P11" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="105" t="s">
+      <c r="Q11" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="R11" s="108"/>
+      <c r="R11" s="116"/>
       <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="18.75">
-      <c r="A12" s="104"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="26" t="s">
@@ -3077,17 +3092,17 @@
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="108"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="116"/>
       <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" ht="56.25">
-      <c r="A13" s="104"/>
-      <c r="B13" s="98" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="20"/>
@@ -3106,19 +3121,19 @@
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
-      <c r="P13" s="98" t="s">
+      <c r="P13" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Q13" s="105" t="s">
+      <c r="Q13" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="108"/>
+      <c r="R13" s="116"/>
       <c r="S13" s="29"/>
     </row>
     <row r="14" spans="1:19" ht="37.5">
-      <c r="A14" s="104"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25" t="s">
         <v>50</v>
@@ -3135,17 +3150,17 @@
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="108"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="116"/>
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="1:19" ht="56.25">
-      <c r="A15" s="104"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="20"/>
@@ -3164,19 +3179,19 @@
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="98" t="s">
+      <c r="P15" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" s="105" t="s">
+      <c r="Q15" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="108"/>
+      <c r="R15" s="116"/>
       <c r="S15" s="29"/>
     </row>
     <row r="16" spans="1:19" ht="37.5">
-      <c r="A16" s="104"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25" t="s">
         <v>50</v>
@@ -3193,17 +3208,17 @@
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="108"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="116"/>
       <c r="S16" s="29"/>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20"/>
@@ -3218,21 +3233,21 @@
       <c r="M17" s="22"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
-      <c r="P17" s="98" t="s">
+      <c r="P17" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="105" t="s">
+      <c r="Q17" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="106" t="s">
+      <c r="R17" s="128" t="s">
         <v>58</v>
       </c>
       <c r="S17" s="29"/>
     </row>
     <row r="18" spans="1:19" ht="18.75">
-      <c r="A18" s="104"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="25"/>
       <c r="E18" s="26"/>
       <c r="F18" s="30"/>
@@ -3245,17 +3260,17 @@
       <c r="M18" s="27"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="104"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="121"/>
       <c r="S18" s="24"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="25"/>
@@ -3270,19 +3285,19 @@
       <c r="M19" s="22"/>
       <c r="N19" s="20"/>
       <c r="O19" s="20"/>
-      <c r="P19" s="98" t="s">
+      <c r="P19" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="102" t="s">
+      <c r="Q19" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="104"/>
+      <c r="R19" s="121"/>
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="20"/>
       <c r="E20" s="26"/>
       <c r="F20" s="21"/>
@@ -3295,9 +3310,9 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="27"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="104"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="121"/>
       <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" ht="26.25" thickBot="1">
@@ -3318,17 +3333,17 @@
       <c r="O21" s="35"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="36"/>
-      <c r="R21" s="104"/>
+      <c r="R21" s="121"/>
       <c r="S21" s="24"/>
     </row>
     <row r="22" spans="1:19" ht="56.25" customHeight="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="20"/>
@@ -3349,19 +3364,19 @@
       <c r="M22" s="22"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
-      <c r="P22" s="98" t="s">
+      <c r="P22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="100" t="s">
+      <c r="Q22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="104"/>
+      <c r="R22" s="121"/>
       <c r="S22" s="24"/>
     </row>
     <row r="23" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="25"/>
       <c r="E23" s="37"/>
       <c r="F23" s="25" t="s">
@@ -3380,17 +3395,17 @@
       <c r="M23" s="27"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="104"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="121"/>
       <c r="S23" s="24"/>
     </row>
     <row r="24" spans="1:19" ht="56.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3417,19 +3432,19 @@
         <v>70</v>
       </c>
       <c r="O24" s="20"/>
-      <c r="P24" s="98" t="s">
+      <c r="P24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="100" t="s">
+      <c r="Q24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="R24" s="104"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="25" t="s">
         <v>71</v>
       </c>
@@ -3454,17 +3469,17 @@
         <v>75</v>
       </c>
       <c r="O25" s="25"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="99"/>
+      <c r="P25" s="119"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="119"/>
       <c r="S25" s="24"/>
     </row>
     <row r="26" spans="1:19" ht="69">
-      <c r="A26" s="104"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -3493,10 +3508,10 @@
         <v>70</v>
       </c>
       <c r="O26" s="20"/>
-      <c r="P26" s="98" t="s">
+      <c r="P26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="Q26" s="100" t="s">
+      <c r="Q26" s="123" t="s">
         <v>43</v>
       </c>
       <c r="R26" s="39" t="s">
@@ -3505,9 +3520,9 @@
       <c r="S26" s="24"/>
     </row>
     <row r="27" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="25" t="s">
         <v>71</v>
       </c>
@@ -3534,17 +3549,17 @@
         <v>75</v>
       </c>
       <c r="O27" s="27"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="101"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="124"/>
       <c r="R27" s="40"/>
       <c r="S27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="37.5">
-      <c r="A28" s="104"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -3573,19 +3588,19 @@
         <v>85</v>
       </c>
       <c r="O28" s="20"/>
-      <c r="P28" s="98" t="s">
+      <c r="P28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Q28" s="100" t="s">
+      <c r="Q28" s="123" t="s">
         <v>49</v>
       </c>
       <c r="R28" s="40"/>
       <c r="S28" s="24"/>
     </row>
     <row r="29" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="25" t="s">
         <v>71</v>
       </c>
@@ -3612,17 +3627,17 @@
         <v>88</v>
       </c>
       <c r="O29" s="27"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="101"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="124"/>
       <c r="R29" s="40"/>
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" ht="37.5">
-      <c r="A30" s="104"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="20"/>
@@ -3647,19 +3662,19 @@
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="98" t="s">
+      <c r="P30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="Q30" s="100" t="s">
+      <c r="Q30" s="123" t="s">
         <v>54</v>
       </c>
       <c r="R30" s="40"/>
       <c r="S30" s="24"/>
     </row>
     <row r="31" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26" t="s">
         <v>37</v>
@@ -3682,17 +3697,17 @@
       </c>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="101"/>
+      <c r="P31" s="119"/>
+      <c r="Q31" s="124"/>
       <c r="R31" s="40"/>
       <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="56.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="98" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="20"/>
@@ -3709,19 +3724,19 @@
       <c r="M32" s="22"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
-      <c r="P32" s="98" t="s">
+      <c r="P32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="Q32" s="100" t="s">
+      <c r="Q32" s="123" t="s">
         <v>57</v>
       </c>
       <c r="R32" s="40"/>
       <c r="S32" s="24"/>
     </row>
     <row r="33" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="25"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -3736,17 +3751,17 @@
       <c r="M33" s="27"/>
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="101"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="124"/>
       <c r="R33" s="40"/>
       <c r="S33" s="24"/>
     </row>
     <row r="34" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A34" s="104"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="122" t="s">
         <v>93</v>
       </c>
       <c r="D34" s="20"/>
@@ -3761,19 +3776,19 @@
       <c r="M34" s="22"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
-      <c r="P34" s="98" t="s">
+      <c r="P34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="Q34" s="102" t="s">
+      <c r="Q34" s="129" t="s">
         <v>30</v>
       </c>
       <c r="R34" s="40"/>
       <c r="S34" s="24"/>
     </row>
     <row r="35" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="26"/>
@@ -3786,8 +3801,8 @@
       <c r="M35" s="27"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="101"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="124"/>
       <c r="R35" s="40"/>
       <c r="S35" s="24"/>
     </row>
@@ -3812,21 +3827,23 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
     </row>
-    <row r="37" spans="1:19" ht="37.5">
-      <c r="A37" s="103" t="s">
+    <row r="37" spans="1:19" ht="56.25">
+      <c r="A37" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="G37" s="21" t="s">
         <v>94</v>
       </c>
@@ -3840,24 +3857,26 @@
       <c r="M37" s="44"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
-      <c r="P37" s="98" t="s">
+      <c r="P37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="100" t="s">
+      <c r="Q37" s="123" t="s">
         <v>30</v>
       </c>
       <c r="R37" s="45"/>
       <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="1:19" ht="20.25" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+    <row r="38" spans="1:19" ht="57" thickBot="1">
+      <c r="A38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
       <c r="D38" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="46"/>
-      <c r="F38" s="26"/>
+      <c r="F38" s="26" t="s">
+        <v>308</v>
+      </c>
       <c r="G38" s="26" t="s">
         <v>97</v>
       </c>
@@ -3869,16 +3888,16 @@
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="101"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="124"/>
       <c r="S38" s="24"/>
     </row>
     <row r="39" spans="1:19" ht="37.5">
-      <c r="A39" s="104"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -3897,18 +3916,18 @@
       <c r="M39" s="44"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="98" t="s">
+      <c r="P39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="Q39" s="100" t="s">
+      <c r="Q39" s="123" t="s">
         <v>36</v>
       </c>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="25" t="s">
         <v>96</v>
       </c>
@@ -3925,16 +3944,16 @@
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="101"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="124"/>
       <c r="S40" s="24"/>
     </row>
     <row r="41" spans="1:19" ht="69">
-      <c r="A41" s="104"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -3951,10 +3970,10 @@
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
       <c r="O41" s="20"/>
-      <c r="P41" s="98" t="s">
+      <c r="P41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="Q41" s="100" t="s">
+      <c r="Q41" s="123" t="s">
         <v>43</v>
       </c>
       <c r="R41" s="39" t="s">
@@ -3963,9 +3982,9 @@
       <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" ht="20.25" thickBot="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="25" t="s">
         <v>96</v>
       </c>
@@ -3980,17 +3999,17 @@
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
-      <c r="P42" s="99"/>
-      <c r="Q42" s="101"/>
+      <c r="P42" s="119"/>
+      <c r="Q42" s="124"/>
       <c r="R42" s="40"/>
       <c r="S42" s="24"/>
     </row>
     <row r="43" spans="1:19" ht="19.5">
-      <c r="A43" s="104"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="20"/>
@@ -4005,19 +4024,19 @@
       <c r="M43" s="44"/>
       <c r="N43" s="20"/>
       <c r="O43" s="20"/>
-      <c r="P43" s="98" t="s">
+      <c r="P43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="Q43" s="100" t="s">
+      <c r="Q43" s="123" t="s">
         <v>49</v>
       </c>
       <c r="R43" s="40"/>
       <c r="S43" s="24"/>
     </row>
     <row r="44" spans="1:19" ht="20.25" thickBot="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="25"/>
       <c r="E44" s="46"/>
       <c r="F44" s="26"/>
@@ -4030,17 +4049,17 @@
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="101"/>
+      <c r="P44" s="119"/>
+      <c r="Q44" s="124"/>
       <c r="R44" s="40"/>
       <c r="S44" s="24"/>
     </row>
     <row r="45" spans="1:19" ht="18.75">
-      <c r="A45" s="104"/>
-      <c r="B45" s="98" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="20"/>
@@ -4055,19 +4074,19 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
-      <c r="P45" s="98" t="s">
+      <c r="P45" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="Q45" s="100" t="s">
+      <c r="Q45" s="123" t="s">
         <v>54</v>
       </c>
       <c r="R45" s="40"/>
       <c r="S45" s="24"/>
     </row>
     <row r="46" spans="1:19" ht="20.25" thickBot="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="25"/>
       <c r="E46" s="46"/>
       <c r="F46" s="21"/>
@@ -4080,17 +4099,17 @@
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
-      <c r="P46" s="99"/>
-      <c r="Q46" s="101"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="124"/>
       <c r="R46" s="40"/>
       <c r="S46" s="24"/>
     </row>
     <row r="47" spans="1:19" ht="18.75">
-      <c r="A47" s="104"/>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="20"/>
@@ -4105,19 +4124,19 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
-      <c r="P47" s="98" t="s">
+      <c r="P47" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="Q47" s="100" t="s">
+      <c r="Q47" s="123" t="s">
         <v>57</v>
       </c>
       <c r="R47" s="40"/>
       <c r="S47" s="24"/>
     </row>
     <row r="48" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="20"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
@@ -4130,17 +4149,17 @@
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
       <c r="O48" s="25"/>
-      <c r="P48" s="99"/>
-      <c r="Q48" s="101"/>
+      <c r="P48" s="119"/>
+      <c r="Q48" s="124"/>
       <c r="R48" s="40"/>
       <c r="S48" s="24"/>
     </row>
     <row r="49" spans="1:19" ht="19.5">
-      <c r="A49" s="104"/>
-      <c r="B49" s="98" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="20"/>
@@ -4155,19 +4174,19 @@
       <c r="M49" s="44"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
-      <c r="P49" s="98" t="s">
+      <c r="P49" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="Q49" s="102" t="s">
+      <c r="Q49" s="129" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="40"/>
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" ht="19.5" thickBot="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="20"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -4180,8 +4199,8 @@
       <c r="M50" s="25"/>
       <c r="N50" s="27"/>
       <c r="O50" s="27"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="101"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="124"/>
       <c r="R50" s="40"/>
       <c r="S50" s="24"/>
     </row>
@@ -8497,18 +8516,71 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:M2"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="A37:A50"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R25"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
     <mergeCell ref="A7:A20"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -8533,74 +8605,21 @@
     <mergeCell ref="Q11:Q12"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="A37:A50"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="P41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:M2"/>
+    <mergeCell ref="A3:R3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8613,7 +8632,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8630,24 +8649,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>2</v>
@@ -8665,16 +8684,16 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
         <v>5</v>
@@ -8686,72 +8705,72 @@
       <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="102" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="104"/>
     </row>
     <row r="4" spans="1:20" ht="64.5" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="105" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="110"/>
       <c r="N4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="122"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="124" t="s">
+      <c r="R4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="127" t="s">
+      <c r="S4" s="115" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="13"/>
     </row>
     <row r="5" spans="1:20" ht="78.75" customHeight="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="118"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="15" t="s">
         <v>99</v>
       </c>
@@ -8791,15 +8810,15 @@
       <c r="P5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="108"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="119"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -8813,19 +8832,19 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="128"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="117"/>
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="56.25">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="132" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="20" t="s">
@@ -8853,21 +8872,21 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
-      <c r="Q7" s="135" t="s">
+      <c r="Q7" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="138" t="s">
+      <c r="R7" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="139" t="s">
+      <c r="S7" s="137" t="s">
         <v>112</v>
       </c>
       <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="57" thickBot="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="25" t="s">
         <v>298</v>
       </c>
@@ -8893,17 +8912,17 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="113"/>
       <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" ht="37.5">
-      <c r="A9" s="104"/>
-      <c r="B9" s="135" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="20" t="s">
@@ -8935,19 +8954,19 @@
       <c r="P9" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="Q9" s="135" t="s">
+      <c r="Q9" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="136" t="s">
+      <c r="R9" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="125"/>
+      <c r="S9" s="113"/>
       <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:20" ht="57" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="25" t="s">
         <v>298</v>
       </c>
@@ -8977,17 +8996,17 @@
       <c r="P10" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="125"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="113"/>
       <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20" ht="37.5">
-      <c r="A11" s="104"/>
-      <c r="B11" s="135" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="130" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="20" t="s">
@@ -9015,19 +9034,19 @@
       <c r="P11" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="135" t="s">
+      <c r="Q11" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="136" t="s">
+      <c r="R11" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="125"/>
+      <c r="S11" s="113"/>
       <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="25" t="s">
         <v>294</v>
       </c>
@@ -9053,17 +9072,17 @@
       <c r="P12" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="125"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="37.5">
-      <c r="A13" s="104"/>
-      <c r="B13" s="135" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="130" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -9084,12 +9103,12 @@
       <c r="I13" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="J13" s="140" t="s">
+      <c r="J13" s="139" t="s">
         <v>289</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="142"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="141"/>
       <c r="N13" s="20" t="s">
         <v>48</v>
       </c>
@@ -9099,19 +9118,19 @@
       <c r="P13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="Q13" s="135" t="s">
+      <c r="Q13" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="136" t="s">
+      <c r="R13" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="125"/>
+      <c r="S13" s="113"/>
       <c r="T13" s="24"/>
     </row>
     <row r="14" spans="1:20" ht="75.75" thickBot="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="38" t="s">
         <v>287</v>
       </c>
@@ -9130,10 +9149,10 @@
       <c r="I14" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="25" t="s">
         <v>280</v>
       </c>
@@ -9143,17 +9162,17 @@
       <c r="P14" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="125"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="113"/>
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="18.75">
-      <c r="A15" s="104"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="130" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="37" t="s">
@@ -9179,19 +9198,19 @@
         <v>283</v>
       </c>
       <c r="P15" s="37"/>
-      <c r="Q15" s="135" t="s">
+      <c r="Q15" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="136" t="s">
+      <c r="R15" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="125"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="38" t="s">
         <v>169</v>
       </c>
@@ -9215,17 +9234,17 @@
         <v>279</v>
       </c>
       <c r="P16" s="38"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="125"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="113"/>
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18.75">
-      <c r="A17" s="104"/>
-      <c r="B17" s="135" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="130" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="20"/>
@@ -9245,19 +9264,19 @@
       <c r="N17" s="20"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
-      <c r="Q17" s="135" t="s">
+      <c r="Q17" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="136" t="s">
+      <c r="R17" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="125"/>
+      <c r="S17" s="113"/>
       <c r="T17" s="24"/>
     </row>
     <row r="18" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25" t="s">
         <v>276</v>
@@ -9273,17 +9292,17 @@
       <c r="N18" s="25"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="125"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="113"/>
       <c r="T18" s="24"/>
     </row>
     <row r="19" spans="1:20" ht="18.75">
-      <c r="A19" s="104"/>
-      <c r="B19" s="135" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="130" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="20"/>
@@ -9299,19 +9318,19 @@
       <c r="N19" s="23"/>
       <c r="O19" s="58"/>
       <c r="P19" s="58"/>
-      <c r="Q19" s="135" t="s">
+      <c r="Q19" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="138" t="s">
+      <c r="R19" s="136" t="s">
         <v>30</v>
       </c>
       <c r="S19" s="59"/>
       <c r="T19" s="24"/>
     </row>
     <row r="20" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -9325,8 +9344,8 @@
       <c r="N20" s="27"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="101"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="124"/>
       <c r="S20" s="59"/>
       <c r="T20" s="24"/>
     </row>
@@ -9353,13 +9372,13 @@
       <c r="T21" s="24"/>
     </row>
     <row r="22" spans="1:20" ht="57" thickTop="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="20"/>
@@ -9385,21 +9404,21 @@
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="98" t="s">
+      <c r="Q22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="100" t="s">
+      <c r="R22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="132" t="s">
+      <c r="S22" s="146" t="s">
         <v>119</v>
       </c>
       <c r="T22" s="24"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="26" t="s">
@@ -9423,17 +9442,17 @@
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="125"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="113"/>
       <c r="T23" s="24"/>
     </row>
     <row r="24" spans="1:20" ht="56.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="20"/>
@@ -9463,19 +9482,19 @@
         <v>269</v>
       </c>
       <c r="P24" s="22"/>
-      <c r="Q24" s="98" t="s">
+      <c r="Q24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="100" t="s">
+      <c r="R24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="125"/>
+      <c r="S24" s="113"/>
       <c r="T24" s="24"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="25"/>
       <c r="E25" s="38"/>
       <c r="F25" s="26" t="s">
@@ -9503,17 +9522,17 @@
         <v>260</v>
       </c>
       <c r="P25" s="27"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="125"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="113"/>
       <c r="T25" s="24"/>
     </row>
     <row r="26" spans="1:20" ht="56.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="20"/>
@@ -9545,19 +9564,19 @@
       <c r="P26" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="Q26" s="98" t="s">
+      <c r="Q26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="R26" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="125"/>
+      <c r="S26" s="113"/>
       <c r="T26" s="24"/>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="25"/>
       <c r="E27" s="26" t="s">
         <v>211</v>
@@ -9587,17 +9606,17 @@
       <c r="P27" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="125"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="113"/>
       <c r="T27" s="24"/>
     </row>
     <row r="28" spans="1:20" ht="56.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -9629,19 +9648,19 @@
       <c r="P28" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="Q28" s="98" t="s">
+      <c r="Q28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R28" s="100" t="s">
+      <c r="R28" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="S28" s="125"/>
+      <c r="S28" s="113"/>
       <c r="T28" s="24"/>
     </row>
     <row r="29" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="25" t="s">
         <v>254</v>
       </c>
@@ -9671,17 +9690,17 @@
       <c r="P29" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="125"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="113"/>
       <c r="T29" s="24"/>
     </row>
     <row r="30" spans="1:20" ht="37.5">
-      <c r="A30" s="104"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -9711,19 +9730,19 @@
       <c r="P30" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="Q30" s="98" t="s">
+      <c r="Q30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="100" t="s">
+      <c r="R30" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="125"/>
+      <c r="S30" s="113"/>
       <c r="T30" s="24"/>
     </row>
     <row r="31" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="25" t="s">
         <v>254</v>
       </c>
@@ -9751,17 +9770,17 @@
       <c r="P31" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="125"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="113"/>
       <c r="T31" s="24"/>
     </row>
     <row r="32" spans="1:20" ht="56.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="98" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="20"/>
@@ -9785,19 +9804,19 @@
       <c r="N32" s="20"/>
       <c r="O32" s="96"/>
       <c r="P32" s="96"/>
-      <c r="Q32" s="98" t="s">
+      <c r="Q32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="100" t="s">
+      <c r="R32" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="S32" s="125"/>
+      <c r="S32" s="113"/>
       <c r="T32" s="24"/>
     </row>
     <row r="33" spans="1:20" ht="57" thickBot="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25" t="s">
         <v>71</v>
@@ -9819,17 +9838,17 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="125"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="113"/>
       <c r="T33" s="24"/>
     </row>
     <row r="34" spans="1:20" ht="56.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="20"/>
@@ -9849,19 +9868,19 @@
       <c r="N34" s="64"/>
       <c r="O34" s="64"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="98" t="s">
+      <c r="Q34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="102" t="s">
+      <c r="R34" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S34" s="62"/>
       <c r="T34" s="24"/>
     </row>
     <row r="35" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="26"/>
@@ -9879,8 +9898,8 @@
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
       <c r="P35" s="64"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="101"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="124"/>
       <c r="S35" s="62"/>
       <c r="T35" s="24"/>
     </row>
@@ -9907,13 +9926,13 @@
       <c r="T36" s="24"/>
     </row>
     <row r="37" spans="1:20" ht="37.5">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -9939,19 +9958,19 @@
       <c r="P37" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="Q37" s="98" t="s">
+      <c r="Q37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="137" t="s">
+      <c r="R37" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="130"/>
+      <c r="S37" s="145"/>
       <c r="T37" s="45"/>
     </row>
     <row r="38" spans="1:20" ht="57" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
       <c r="D38" s="25" t="s">
         <v>192</v>
       </c>
@@ -9975,17 +9994,17 @@
       <c r="P38" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="108"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="116"/>
       <c r="T38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="38.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -10019,19 +10038,19 @@
       <c r="P39" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="Q39" s="98" t="s">
+      <c r="Q39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="137" t="s">
+      <c r="R39" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="108"/>
+      <c r="S39" s="116"/>
       <c r="T39" s="45"/>
     </row>
     <row r="40" spans="1:20" ht="57" thickBot="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="25" t="s">
         <v>192</v>
       </c>
@@ -10063,17 +10082,17 @@
       <c r="P40" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="108"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="116"/>
       <c r="T40" s="45"/>
     </row>
     <row r="41" spans="1:20" ht="38.25">
-      <c r="A41" s="104"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="20" t="s">
@@ -10111,19 +10130,19 @@
         <v>227</v>
       </c>
       <c r="P41" s="20"/>
-      <c r="Q41" s="98" t="s">
+      <c r="Q41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="S41" s="108"/>
+      <c r="S41" s="116"/>
       <c r="T41" s="45"/>
     </row>
     <row r="42" spans="1:20" ht="24" thickBot="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="25" t="s">
         <v>127</v>
       </c>
@@ -10159,17 +10178,17 @@
         <v>232</v>
       </c>
       <c r="P42" s="25"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="108"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="116"/>
       <c r="T42" s="45"/>
     </row>
     <row r="43" spans="1:20" ht="37.5">
-      <c r="A43" s="104"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="20" t="s">
@@ -10205,19 +10224,19 @@
         <v>227</v>
       </c>
       <c r="P43" s="20"/>
-      <c r="Q43" s="98" t="s">
+      <c r="Q43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="102" t="s">
+      <c r="R43" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S43" s="62"/>
       <c r="T43" s="24"/>
     </row>
     <row r="44" spans="1:20" ht="19.5" hidden="1" thickBot="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="25" t="s">
         <v>226</v>
       </c>
@@ -10245,15 +10264,15 @@
         <v>220</v>
       </c>
       <c r="P44" s="25"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="101"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="124"/>
       <c r="S44" s="62"/>
       <c r="T44" s="24"/>
     </row>
     <row r="45" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A45" s="104"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
       <c r="D45" s="25" t="s">
         <v>127</v>
       </c>
@@ -10293,11 +10312,11 @@
       <c r="T45" s="24"/>
     </row>
     <row r="46" spans="1:20" ht="56.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="98" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D46" s="37" t="s">
@@ -10325,19 +10344,19 @@
         <v>67</v>
       </c>
       <c r="P46" s="20"/>
-      <c r="Q46" s="98" t="s">
+      <c r="Q46" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R46" s="100" t="s">
+      <c r="R46" s="123" t="s">
         <v>36</v>
       </c>
       <c r="S46" s="62"/>
       <c r="T46" s="24"/>
     </row>
     <row r="47" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A47" s="104"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="119"/>
       <c r="D47" s="38" t="s">
         <v>169</v>
       </c>
@@ -10363,17 +10382,17 @@
         <v>65</v>
       </c>
       <c r="P47" s="27"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="101"/>
+      <c r="Q47" s="119"/>
+      <c r="R47" s="124"/>
       <c r="S47" s="62"/>
       <c r="T47" s="24"/>
     </row>
     <row r="48" spans="1:20" ht="37.5">
-      <c r="A48" s="104"/>
-      <c r="B48" s="98" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="20"/>
@@ -10399,21 +10418,21 @@
         <v>212</v>
       </c>
       <c r="P48" s="20"/>
-      <c r="Q48" s="98" t="s">
+      <c r="Q48" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R48" s="100" t="s">
+      <c r="R48" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S48" s="107" t="s">
+      <c r="S48" s="125" t="s">
         <v>26</v>
       </c>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:20" ht="57" thickBot="1">
-      <c r="A49" s="104"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25" t="s">
         <v>211</v>
@@ -10437,17 +10456,17 @@
         <v>209</v>
       </c>
       <c r="P49" s="27"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="108"/>
+      <c r="Q49" s="119"/>
+      <c r="R49" s="124"/>
+      <c r="S49" s="116"/>
       <c r="T49" s="24"/>
     </row>
     <row r="50" spans="1:20" ht="18.75">
-      <c r="A50" s="104"/>
-      <c r="B50" s="98" t="s">
+      <c r="A50" s="121"/>
+      <c r="B50" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="98" t="s">
+      <c r="C50" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="20" t="s">
@@ -10465,19 +10484,19 @@
       <c r="N50" s="22"/>
       <c r="O50" s="20"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="98" t="s">
+      <c r="Q50" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R50" s="133" t="s">
+      <c r="R50" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="S50" s="108"/>
+      <c r="S50" s="116"/>
       <c r="T50" s="24"/>
     </row>
     <row r="51" spans="1:20" ht="57" thickBot="1">
-      <c r="A51" s="99"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
       <c r="D51" s="89" t="s">
         <v>207</v>
       </c>
@@ -10493,9 +10512,9 @@
       <c r="N51" s="27"/>
       <c r="O51" s="27"/>
       <c r="P51" s="27"/>
-      <c r="Q51" s="99"/>
-      <c r="R51" s="134"/>
-      <c r="S51" s="108"/>
+      <c r="Q51" s="119"/>
+      <c r="R51" s="148"/>
+      <c r="S51" s="116"/>
       <c r="T51" s="24"/>
     </row>
     <row r="52" spans="1:20" ht="26.25" thickBot="1">
@@ -10517,17 +10536,17 @@
       <c r="P52" s="35"/>
       <c r="Q52" s="33"/>
       <c r="R52" s="66"/>
-      <c r="S52" s="108"/>
+      <c r="S52" s="116"/>
       <c r="T52" s="24"/>
     </row>
     <row r="53" spans="1:20" ht="37.5">
-      <c r="A53" s="146" t="s">
+      <c r="A53" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="133" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="20" t="s">
@@ -10557,19 +10576,19 @@
       <c r="P53" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="Q53" s="98" t="s">
+      <c r="Q53" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="100" t="s">
+      <c r="R53" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S53" s="108"/>
+      <c r="S53" s="116"/>
       <c r="T53" s="24"/>
     </row>
     <row r="54" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A54" s="104"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
       <c r="D54" s="25" t="s">
         <v>199</v>
       </c>
@@ -10597,17 +10616,17 @@
       <c r="P54" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="Q54" s="99"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="108"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="124"/>
+      <c r="S54" s="116"/>
       <c r="T54" s="24"/>
     </row>
     <row r="55" spans="1:20" ht="37.5">
-      <c r="A55" s="104"/>
-      <c r="B55" s="131" t="s">
+      <c r="A55" s="121"/>
+      <c r="B55" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="133" t="s">
         <v>32</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -10643,19 +10662,19 @@
       <c r="P55" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q55" s="98" t="s">
+      <c r="Q55" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R55" s="100" t="s">
+      <c r="R55" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S55" s="108"/>
+      <c r="S55" s="116"/>
       <c r="T55" s="24"/>
     </row>
     <row r="56" spans="1:20" ht="18.75">
-      <c r="A56" s="104"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
+      <c r="A56" s="121"/>
+      <c r="B56" s="119"/>
+      <c r="C56" s="119"/>
       <c r="D56" s="25" t="s">
         <v>199</v>
       </c>
@@ -10689,17 +10708,17 @@
       <c r="P56" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="Q56" s="99"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="108"/>
+      <c r="Q56" s="119"/>
+      <c r="R56" s="127"/>
+      <c r="S56" s="116"/>
       <c r="T56" s="29"/>
     </row>
     <row r="57" spans="1:20" ht="56.25">
-      <c r="A57" s="104"/>
-      <c r="B57" s="131" t="s">
+      <c r="A57" s="121"/>
+      <c r="B57" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="133" t="s">
         <v>40</v>
       </c>
       <c r="D57" s="20" t="s">
@@ -10735,19 +10754,19 @@
       <c r="P57" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q57" s="98" t="s">
+      <c r="Q57" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R57" s="105" t="s">
+      <c r="R57" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="S57" s="108"/>
+      <c r="S57" s="116"/>
       <c r="T57" s="29"/>
     </row>
     <row r="58" spans="1:20" ht="18.75">
-      <c r="A58" s="104"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
+      <c r="A58" s="121"/>
+      <c r="B58" s="119"/>
+      <c r="C58" s="119"/>
       <c r="D58" s="25" t="s">
         <v>116</v>
       </c>
@@ -10781,17 +10800,17 @@
       <c r="P58" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="Q58" s="99"/>
-      <c r="R58" s="99"/>
-      <c r="S58" s="108"/>
+      <c r="Q58" s="119"/>
+      <c r="R58" s="119"/>
+      <c r="S58" s="116"/>
       <c r="T58" s="29"/>
     </row>
     <row r="59" spans="1:20" ht="56.25">
-      <c r="A59" s="104"/>
-      <c r="B59" s="131" t="s">
+      <c r="A59" s="121"/>
+      <c r="B59" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="20" t="s">
@@ -10819,19 +10838,19 @@
       <c r="P59" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="Q59" s="98" t="s">
+      <c r="Q59" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R59" s="105" t="s">
+      <c r="R59" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="S59" s="108"/>
+      <c r="S59" s="116"/>
       <c r="T59" s="29"/>
     </row>
     <row r="60" spans="1:20" ht="37.5">
-      <c r="A60" s="104"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
+      <c r="A60" s="121"/>
+      <c r="B60" s="119"/>
+      <c r="C60" s="119"/>
       <c r="D60" s="25" t="s">
         <v>116</v>
       </c>
@@ -10857,17 +10876,17 @@
       <c r="P60" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="Q60" s="99"/>
-      <c r="R60" s="99"/>
-      <c r="S60" s="108"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="116"/>
       <c r="T60" s="29"/>
     </row>
     <row r="61" spans="1:20" ht="56.25">
-      <c r="A61" s="104"/>
-      <c r="B61" s="131" t="s">
+      <c r="A61" s="121"/>
+      <c r="B61" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="133" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="20"/>
@@ -10891,19 +10910,19 @@
         <v>181</v>
       </c>
       <c r="P61" s="20"/>
-      <c r="Q61" s="98" t="s">
+      <c r="Q61" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R61" s="105" t="s">
+      <c r="R61" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="S61" s="108"/>
+      <c r="S61" s="116"/>
       <c r="T61" s="29"/>
     </row>
     <row r="62" spans="1:20" ht="56.25">
-      <c r="A62" s="104"/>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
+      <c r="A62" s="121"/>
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
       <c r="D62" s="25"/>
       <c r="E62" s="25" t="s">
         <v>180</v>
@@ -10925,17 +10944,17 @@
         <v>178</v>
       </c>
       <c r="P62" s="25"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
-      <c r="S62" s="108"/>
+      <c r="Q62" s="119"/>
+      <c r="R62" s="119"/>
+      <c r="S62" s="116"/>
       <c r="T62" s="29"/>
     </row>
     <row r="63" spans="1:20" ht="18.75">
-      <c r="A63" s="104"/>
-      <c r="B63" s="131" t="s">
+      <c r="A63" s="121"/>
+      <c r="B63" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C63" s="131" t="s">
+      <c r="C63" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D63" s="20"/>
@@ -10953,21 +10972,21 @@
       <c r="N63" s="20"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="98" t="s">
+      <c r="Q63" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R63" s="105" t="s">
+      <c r="R63" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="S63" s="106" t="s">
+      <c r="S63" s="128" t="s">
         <v>58</v>
       </c>
       <c r="T63" s="29"/>
     </row>
     <row r="64" spans="1:20" ht="18.75">
-      <c r="A64" s="104"/>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
       <c r="D64" s="25"/>
       <c r="E64" s="25" t="s">
         <v>176</v>
@@ -10983,17 +11002,17 @@
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="104"/>
+      <c r="Q64" s="119"/>
+      <c r="R64" s="119"/>
+      <c r="S64" s="121"/>
       <c r="T64" s="24"/>
     </row>
     <row r="65" spans="1:20" ht="18.75">
-      <c r="A65" s="104"/>
-      <c r="B65" s="131" t="s">
+      <c r="A65" s="121"/>
+      <c r="B65" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="131" t="s">
+      <c r="C65" s="133" t="s">
         <v>60</v>
       </c>
       <c r="D65" s="25"/>
@@ -11009,19 +11028,19 @@
       <c r="N65" s="20"/>
       <c r="O65" s="20"/>
       <c r="P65" s="20"/>
-      <c r="Q65" s="98" t="s">
+      <c r="Q65" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R65" s="102" t="s">
+      <c r="R65" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="S65" s="104"/>
+      <c r="S65" s="121"/>
       <c r="T65" s="24"/>
     </row>
     <row r="66" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A66" s="99"/>
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
+      <c r="A66" s="119"/>
+      <c r="B66" s="119"/>
+      <c r="C66" s="119"/>
       <c r="D66" s="20"/>
       <c r="E66" s="25"/>
       <c r="F66" s="20"/>
@@ -11035,9 +11054,9 @@
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
       <c r="P66" s="25"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="101"/>
-      <c r="S66" s="104"/>
+      <c r="Q66" s="119"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="121"/>
       <c r="T66" s="24"/>
     </row>
     <row r="67" spans="1:20" ht="26.25" thickBot="1">
@@ -11059,17 +11078,17 @@
       <c r="P67" s="80"/>
       <c r="Q67" s="33"/>
       <c r="R67" s="50"/>
-      <c r="S67" s="104"/>
+      <c r="S67" s="121"/>
       <c r="T67" s="24"/>
     </row>
     <row r="68" spans="1:20" ht="37.5">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="131" t="s">
+      <c r="C68" s="133" t="s">
         <v>28</v>
       </c>
       <c r="D68" s="51" t="s">
@@ -11099,19 +11118,19 @@
         <v>174</v>
       </c>
       <c r="P68" s="20"/>
-      <c r="Q68" s="98" t="s">
+      <c r="Q68" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R68" s="100" t="s">
+      <c r="R68" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S68" s="104"/>
+      <c r="S68" s="121"/>
       <c r="T68" s="24"/>
     </row>
     <row r="69" spans="1:20" ht="57" thickBot="1">
-      <c r="A69" s="104"/>
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="119"/>
+      <c r="C69" s="119"/>
       <c r="D69" s="25" t="s">
         <v>173</v>
       </c>
@@ -11139,17 +11158,17 @@
         <v>171</v>
       </c>
       <c r="P69" s="25"/>
-      <c r="Q69" s="99"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="104"/>
+      <c r="Q69" s="119"/>
+      <c r="R69" s="124"/>
+      <c r="S69" s="121"/>
       <c r="T69" s="24"/>
     </row>
     <row r="70" spans="1:20" ht="37.5">
-      <c r="A70" s="104"/>
-      <c r="B70" s="131" t="s">
+      <c r="A70" s="121"/>
+      <c r="B70" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="131" t="s">
+      <c r="C70" s="133" t="s">
         <v>32</v>
       </c>
       <c r="D70" s="20"/>
@@ -11179,19 +11198,19 @@
       <c r="P70" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="Q70" s="98" t="s">
+      <c r="Q70" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R70" s="100" t="s">
+      <c r="R70" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S70" s="104"/>
+      <c r="S70" s="121"/>
       <c r="T70" s="24"/>
     </row>
     <row r="71" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A71" s="104"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="119"/>
+      <c r="C71" s="119"/>
       <c r="D71" s="25"/>
       <c r="E71" s="38" t="s">
         <v>169</v>
@@ -11219,17 +11238,17 @@
       <c r="P71" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="Q71" s="99"/>
-      <c r="R71" s="101"/>
-      <c r="S71" s="99"/>
+      <c r="Q71" s="119"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="119"/>
       <c r="T71" s="24"/>
     </row>
     <row r="72" spans="1:20" ht="69">
-      <c r="A72" s="104"/>
-      <c r="B72" s="131" t="s">
+      <c r="A72" s="121"/>
+      <c r="B72" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="133" t="s">
         <v>40</v>
       </c>
       <c r="D72" s="20"/>
@@ -11257,10 +11276,10 @@
       <c r="P72" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="Q72" s="98" t="s">
+      <c r="Q72" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R72" s="100" t="s">
+      <c r="R72" s="123" t="s">
         <v>43</v>
       </c>
       <c r="S72" s="49" t="s">
@@ -11269,9 +11288,9 @@
       <c r="T72" s="24"/>
     </row>
     <row r="73" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A73" s="104"/>
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
       <c r="D73" s="25"/>
       <c r="E73" s="38"/>
       <c r="F73" s="25" t="s">
@@ -11297,17 +11316,17 @@
       <c r="P73" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="Q73" s="99"/>
-      <c r="R73" s="101"/>
+      <c r="Q73" s="119"/>
+      <c r="R73" s="124"/>
       <c r="S73" s="40"/>
       <c r="T73" s="24"/>
     </row>
     <row r="74" spans="1:20" ht="37.5">
-      <c r="A74" s="104"/>
-      <c r="B74" s="131" t="s">
+      <c r="A74" s="121"/>
+      <c r="B74" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="131" t="s">
+      <c r="C74" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D74" s="20"/>
@@ -11335,19 +11354,19 @@
         <v>70</v>
       </c>
       <c r="P74" s="20"/>
-      <c r="Q74" s="98" t="s">
+      <c r="Q74" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R74" s="100" t="s">
+      <c r="R74" s="123" t="s">
         <v>49</v>
       </c>
       <c r="S74" s="40"/>
       <c r="T74" s="24"/>
     </row>
     <row r="75" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A75" s="104"/>
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
@@ -11373,17 +11392,17 @@
         <v>155</v>
       </c>
       <c r="P75" s="25"/>
-      <c r="Q75" s="99"/>
-      <c r="R75" s="101"/>
+      <c r="Q75" s="119"/>
+      <c r="R75" s="124"/>
       <c r="S75" s="40"/>
       <c r="T75" s="24"/>
     </row>
     <row r="76" spans="1:20" ht="37.5">
-      <c r="A76" s="104"/>
-      <c r="B76" s="131" t="s">
+      <c r="A76" s="121"/>
+      <c r="B76" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="133" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="88"/>
@@ -11407,19 +11426,19 @@
         <v>70</v>
       </c>
       <c r="P76" s="20"/>
-      <c r="Q76" s="98" t="s">
+      <c r="Q76" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R76" s="100" t="s">
+      <c r="R76" s="123" t="s">
         <v>54</v>
       </c>
       <c r="S76" s="40"/>
       <c r="T76" s="24"/>
     </row>
     <row r="77" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A77" s="104"/>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
+      <c r="A77" s="121"/>
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
@@ -11441,17 +11460,17 @@
         <v>151</v>
       </c>
       <c r="P77" s="25"/>
-      <c r="Q77" s="99"/>
-      <c r="R77" s="101"/>
+      <c r="Q77" s="119"/>
+      <c r="R77" s="124"/>
       <c r="S77" s="40"/>
       <c r="T77" s="24"/>
     </row>
     <row r="78" spans="1:20" ht="56.25">
-      <c r="A78" s="104"/>
-      <c r="B78" s="131" t="s">
+      <c r="A78" s="121"/>
+      <c r="B78" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D78" s="20"/>
@@ -11469,19 +11488,19 @@
       <c r="N78" s="20"/>
       <c r="O78" s="20"/>
       <c r="P78" s="20"/>
-      <c r="Q78" s="98" t="s">
+      <c r="Q78" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R78" s="100" t="s">
+      <c r="R78" s="123" t="s">
         <v>57</v>
       </c>
       <c r="S78" s="40"/>
       <c r="T78" s="24"/>
     </row>
     <row r="79" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A79" s="104"/>
-      <c r="B79" s="99"/>
-      <c r="C79" s="99"/>
+      <c r="A79" s="121"/>
+      <c r="B79" s="119"/>
+      <c r="C79" s="119"/>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
@@ -11497,17 +11516,17 @@
       <c r="N79" s="25"/>
       <c r="O79" s="25"/>
       <c r="P79" s="25"/>
-      <c r="Q79" s="99"/>
-      <c r="R79" s="101"/>
+      <c r="Q79" s="119"/>
+      <c r="R79" s="124"/>
       <c r="S79" s="40"/>
       <c r="T79" s="24"/>
     </row>
     <row r="80" spans="1:20" ht="18.75">
-      <c r="A80" s="104"/>
-      <c r="B80" s="131" t="s">
+      <c r="A80" s="121"/>
+      <c r="B80" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C80" s="131" t="s">
+      <c r="C80" s="133" t="s">
         <v>60</v>
       </c>
       <c r="D80" s="20"/>
@@ -11523,19 +11542,19 @@
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
-      <c r="Q80" s="98" t="s">
+      <c r="Q80" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R80" s="102" t="s">
+      <c r="R80" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S80" s="40"/>
       <c r="T80" s="24"/>
     </row>
     <row r="81" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A81" s="99"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="99"/>
+      <c r="A81" s="119"/>
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="25"/>
@@ -11549,8 +11568,8 @@
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
       <c r="P81" s="25"/>
-      <c r="Q81" s="99"/>
-      <c r="R81" s="101"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="124"/>
       <c r="S81" s="40"/>
       <c r="T81" s="24"/>
     </row>
@@ -11577,13 +11596,13 @@
       <c r="T82" s="24"/>
     </row>
     <row r="83" spans="1:20" ht="37.5">
-      <c r="A83" s="103" t="s">
+      <c r="A83" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="98" t="s">
+      <c r="B83" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="98" t="s">
+      <c r="C83" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="20"/>
@@ -11607,19 +11626,19 @@
       <c r="N83" s="44"/>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
-      <c r="Q83" s="98" t="s">
+      <c r="Q83" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R83" s="100" t="s">
+      <c r="R83" s="123" t="s">
         <v>30</v>
       </c>
       <c r="S83" s="45"/>
       <c r="T83" s="24"/>
     </row>
     <row r="84" spans="1:20" ht="57" thickBot="1">
-      <c r="A84" s="104"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
+      <c r="A84" s="121"/>
+      <c r="B84" s="119"/>
+      <c r="C84" s="119"/>
       <c r="D84" s="82"/>
       <c r="E84" s="37"/>
       <c r="F84" s="25"/>
@@ -11641,16 +11660,16 @@
       <c r="N84" s="25"/>
       <c r="O84" s="44"/>
       <c r="P84" s="25"/>
-      <c r="Q84" s="99"/>
-      <c r="R84" s="101"/>
+      <c r="Q84" s="119"/>
+      <c r="R84" s="124"/>
       <c r="T84" s="24"/>
     </row>
     <row r="85" spans="1:20" ht="37.5">
-      <c r="A85" s="104"/>
-      <c r="B85" s="98" t="s">
+      <c r="A85" s="121"/>
+      <c r="B85" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="98" t="s">
+      <c r="C85" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="44"/>
@@ -11678,18 +11697,18 @@
         <v>134</v>
       </c>
       <c r="P85" s="20"/>
-      <c r="Q85" s="98" t="s">
+      <c r="Q85" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R85" s="100" t="s">
+      <c r="R85" s="123" t="s">
         <v>36</v>
       </c>
       <c r="T85" s="24"/>
     </row>
     <row r="86" spans="1:20" ht="57" thickBot="1">
-      <c r="A86" s="104"/>
-      <c r="B86" s="99"/>
-      <c r="C86" s="99"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="119"/>
+      <c r="C86" s="119"/>
       <c r="D86" s="25"/>
       <c r="E86" s="20"/>
       <c r="F86" s="25"/>
@@ -11715,16 +11734,16 @@
         <v>133</v>
       </c>
       <c r="P86" s="25"/>
-      <c r="Q86" s="99"/>
-      <c r="R86" s="101"/>
+      <c r="Q86" s="119"/>
+      <c r="R86" s="124"/>
       <c r="T86" s="24"/>
     </row>
     <row r="87" spans="1:20" ht="69">
-      <c r="A87" s="104"/>
-      <c r="B87" s="98" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D87" s="20"/>
@@ -11752,10 +11771,10 @@
       <c r="P87" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="Q87" s="98" t="s">
+      <c r="Q87" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R87" s="100" t="s">
+      <c r="R87" s="123" t="s">
         <v>43</v>
       </c>
       <c r="S87" s="49" t="s">
@@ -11764,9 +11783,9 @@
       <c r="T87" s="24"/>
     </row>
     <row r="88" spans="1:20" ht="57" thickBot="1">
-      <c r="A88" s="104"/>
-      <c r="B88" s="99"/>
-      <c r="C88" s="99"/>
+      <c r="A88" s="121"/>
+      <c r="B88" s="119"/>
+      <c r="C88" s="119"/>
       <c r="D88" s="25"/>
       <c r="E88" s="44"/>
       <c r="F88" s="25"/>
@@ -11792,17 +11811,17 @@
       <c r="P88" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="Q88" s="99"/>
-      <c r="R88" s="101"/>
+      <c r="Q88" s="119"/>
+      <c r="R88" s="124"/>
       <c r="S88" s="40"/>
       <c r="T88" s="24"/>
     </row>
     <row r="89" spans="1:20" ht="37.5">
-      <c r="A89" s="104"/>
-      <c r="B89" s="98" t="s">
+      <c r="A89" s="121"/>
+      <c r="B89" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="98" t="s">
+      <c r="C89" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D89" s="44" t="s">
@@ -11826,19 +11845,19 @@
       <c r="P89" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="Q89" s="98" t="s">
+      <c r="Q89" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R89" s="100" t="s">
+      <c r="R89" s="123" t="s">
         <v>49</v>
       </c>
       <c r="S89" s="40"/>
       <c r="T89" s="24"/>
     </row>
     <row r="90" spans="1:20" ht="57" thickBot="1">
-      <c r="A90" s="104"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="99"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="119"/>
+      <c r="C90" s="119"/>
       <c r="D90" s="25" t="s">
         <v>133</v>
       </c>
@@ -11860,17 +11879,17 @@
       <c r="P90" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="Q90" s="99"/>
-      <c r="R90" s="101"/>
+      <c r="Q90" s="119"/>
+      <c r="R90" s="124"/>
       <c r="S90" s="40"/>
       <c r="T90" s="24"/>
     </row>
     <row r="91" spans="1:20" ht="19.5">
-      <c r="A91" s="104"/>
-      <c r="B91" s="98" t="s">
+      <c r="A91" s="121"/>
+      <c r="B91" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="98" t="s">
+      <c r="C91" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D91" s="44" t="s">
@@ -11888,19 +11907,19 @@
       <c r="N91" s="44"/>
       <c r="O91" s="44"/>
       <c r="P91" s="20"/>
-      <c r="Q91" s="98" t="s">
+      <c r="Q91" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R91" s="100" t="s">
+      <c r="R91" s="123" t="s">
         <v>54</v>
       </c>
       <c r="S91" s="40"/>
       <c r="T91" s="24"/>
     </row>
     <row r="92" spans="1:20" ht="20.25" thickBot="1">
-      <c r="A92" s="104"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="99"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="119"/>
+      <c r="C92" s="119"/>
       <c r="D92" s="25" t="s">
         <v>133</v>
       </c>
@@ -11916,17 +11935,17 @@
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
-      <c r="Q92" s="99"/>
-      <c r="R92" s="101"/>
+      <c r="Q92" s="119"/>
+      <c r="R92" s="124"/>
       <c r="S92" s="40"/>
       <c r="T92" s="24"/>
     </row>
     <row r="93" spans="1:20" ht="18.75">
-      <c r="A93" s="104"/>
-      <c r="B93" s="98" t="s">
+      <c r="A93" s="121"/>
+      <c r="B93" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C93" s="98" t="s">
+      <c r="C93" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D93" s="20"/>
@@ -11942,19 +11961,19 @@
       <c r="N93" s="20"/>
       <c r="O93" s="20"/>
       <c r="P93" s="20"/>
-      <c r="Q93" s="98" t="s">
+      <c r="Q93" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R93" s="100" t="s">
+      <c r="R93" s="123" t="s">
         <v>57</v>
       </c>
       <c r="S93" s="40"/>
       <c r="T93" s="24"/>
     </row>
     <row r="94" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A94" s="104"/>
-      <c r="B94" s="99"/>
-      <c r="C94" s="99"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="119"/>
+      <c r="C94" s="119"/>
       <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="F94" s="20"/>
@@ -11968,17 +11987,17 @@
       <c r="N94" s="25"/>
       <c r="O94" s="25"/>
       <c r="P94" s="25"/>
-      <c r="Q94" s="99"/>
-      <c r="R94" s="101"/>
+      <c r="Q94" s="119"/>
+      <c r="R94" s="124"/>
       <c r="S94" s="40"/>
       <c r="T94" s="24"/>
     </row>
     <row r="95" spans="1:20" ht="19.5">
-      <c r="A95" s="104"/>
-      <c r="B95" s="98" t="s">
+      <c r="A95" s="121"/>
+      <c r="B95" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="98" t="s">
+      <c r="C95" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D95" s="20"/>
@@ -11994,19 +12013,19 @@
       <c r="N95" s="44"/>
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
-      <c r="Q95" s="98" t="s">
+      <c r="Q95" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R95" s="102" t="s">
+      <c r="R95" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S95" s="40"/>
       <c r="T95" s="24"/>
     </row>
     <row r="96" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A96" s="99"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
+      <c r="A96" s="119"/>
+      <c r="B96" s="119"/>
+      <c r="C96" s="119"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -12020,8 +12039,8 @@
       <c r="N96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
-      <c r="Q96" s="99"/>
-      <c r="R96" s="101"/>
+      <c r="Q96" s="119"/>
+      <c r="R96" s="124"/>
       <c r="S96" s="40"/>
       <c r="T96" s="24"/>
     </row>
@@ -16365,27 +16384,153 @@
     </row>
   </sheetData>
   <mergeCells count="192">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="S63:S71"/>
+    <mergeCell ref="Q65:Q66"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:R71"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="Q95:Q96"/>
+    <mergeCell ref="Q76:Q77"/>
+    <mergeCell ref="Q78:Q79"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="Q87:Q88"/>
+    <mergeCell ref="Q89:Q90"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="R76:R77"/>
+    <mergeCell ref="Q91:Q92"/>
+    <mergeCell ref="R91:R92"/>
+    <mergeCell ref="R93:R94"/>
+    <mergeCell ref="R95:R96"/>
+    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="R80:R81"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="R85:R86"/>
+    <mergeCell ref="R87:R88"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="R68:R69"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="S37:S42"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="S22:S33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S48:S62"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:N2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S18"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="Q63:Q64"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A83:A96"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A37:A51"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A68:A81"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B57:B58"/>
@@ -16410,153 +16555,27 @@
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="C72:C73"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A83:A96"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A37:A51"/>
-    <mergeCell ref="A53:A66"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A68:A81"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="Q63:Q64"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S18"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="J13:M14"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:N2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S37:S42"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="S22:S33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="S48:S62"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R80:R81"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="R85:R86"/>
-    <mergeCell ref="R87:R88"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="R68:R69"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="R63:R64"/>
-    <mergeCell ref="S63:S71"/>
-    <mergeCell ref="Q65:Q66"/>
-    <mergeCell ref="R65:R66"/>
-    <mergeCell ref="Q70:Q71"/>
-    <mergeCell ref="R70:R71"/>
-    <mergeCell ref="Q93:Q94"/>
-    <mergeCell ref="Q95:Q96"/>
-    <mergeCell ref="Q76:Q77"/>
-    <mergeCell ref="Q78:Q79"/>
-    <mergeCell ref="Q80:Q81"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="Q85:Q86"/>
-    <mergeCell ref="Q87:Q88"/>
-    <mergeCell ref="Q89:Q90"/>
-    <mergeCell ref="Q72:Q73"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="R76:R77"/>
-    <mergeCell ref="Q91:Q92"/>
-    <mergeCell ref="R91:R92"/>
-    <mergeCell ref="R93:R94"/>
-    <mergeCell ref="R95:R96"/>
-    <mergeCell ref="R78:R79"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G33" r:id="rId1"/>
@@ -16578,8 +16597,8 @@
   </sheetPr>
   <dimension ref="A1:T997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -16597,24 +16616,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="63" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2" t="s">
         <v>2</v>
@@ -16632,16 +16651,16 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8" t="s">
         <v>5</v>
@@ -16656,69 +16675,69 @@
       <c r="A3" s="149" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="104"/>
     </row>
     <row r="4" spans="1:20" ht="64.5" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="105" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="110"/>
       <c r="N4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="123" t="s">
+      <c r="O4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="122"/>
+      <c r="P4" s="110"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="124" t="s">
+      <c r="R4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="127" t="s">
+      <c r="S4" s="115" t="s">
         <v>7</v>
       </c>
       <c r="T4" s="13"/>
     </row>
     <row r="5" spans="1:20" ht="78.75" customHeight="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="14"/>
-      <c r="C5" s="118"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="15" t="s">
         <v>99</v>
       </c>
@@ -16758,15 +16777,15 @@
       <c r="P5" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="108"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="116"/>
       <c r="T5" s="13"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="119"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="119"/>
+      <c r="C6" s="107"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -16780,19 +16799,19 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="128"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="114"/>
+      <c r="S6" s="117"/>
       <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:20" ht="22.5">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="130" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="21"/>
@@ -16808,21 +16827,21 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
       <c r="P7" s="51"/>
-      <c r="Q7" s="135" t="s">
+      <c r="Q7" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="R7" s="138" t="s">
+      <c r="R7" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="139" t="s">
+      <c r="S7" s="137" t="s">
         <v>112</v>
       </c>
       <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
@@ -16836,17 +16855,17 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="125"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="113"/>
       <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" ht="37.5">
-      <c r="A9" s="104"/>
-      <c r="B9" s="135" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="21"/>
@@ -16864,19 +16883,19 @@
       <c r="N9" s="20"/>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
-      <c r="Q9" s="135" t="s">
+      <c r="Q9" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="136" t="s">
+      <c r="R9" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="125"/>
+      <c r="S9" s="113"/>
       <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26" t="s">
         <v>114</v>
@@ -16892,17 +16911,17 @@
       <c r="N10" s="25"/>
       <c r="O10" s="38"/>
       <c r="P10" s="38"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="125"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="113"/>
       <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20" ht="18.75">
-      <c r="A11" s="104"/>
-      <c r="B11" s="135" t="s">
+      <c r="A11" s="121"/>
+      <c r="B11" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="130" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="21"/>
@@ -16918,19 +16937,19 @@
       <c r="N11" s="20"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="135" t="s">
+      <c r="Q11" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="136" t="s">
+      <c r="R11" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="S11" s="125"/>
+      <c r="S11" s="113"/>
       <c r="T11" s="24"/>
     </row>
     <row r="12" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
@@ -16944,17 +16963,17 @@
       <c r="N12" s="25"/>
       <c r="O12" s="38"/>
       <c r="P12" s="38"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="125"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="113"/>
       <c r="T12" s="24"/>
     </row>
     <row r="13" spans="1:20" ht="18.75">
-      <c r="A13" s="104"/>
-      <c r="B13" s="135" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="130" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="54"/>
@@ -16970,19 +16989,19 @@
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="37"/>
-      <c r="Q13" s="135" t="s">
+      <c r="Q13" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="136" t="s">
+      <c r="R13" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="125"/>
+      <c r="S13" s="113"/>
       <c r="T13" s="24"/>
     </row>
     <row r="14" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="56"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -16996,17 +17015,17 @@
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="38"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="125"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="113"/>
       <c r="T14" s="24"/>
     </row>
     <row r="15" spans="1:20" ht="37.5">
-      <c r="A15" s="104"/>
-      <c r="B15" s="135" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="130" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="54" t="s">
@@ -17024,19 +17043,19 @@
       <c r="N15" s="20"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="135" t="s">
+      <c r="Q15" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="R15" s="136" t="s">
+      <c r="R15" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="125"/>
+      <c r="S15" s="113"/>
       <c r="T15" s="24"/>
     </row>
     <row r="16" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="56" t="s">
         <v>116</v>
       </c>
@@ -17052,17 +17071,17 @@
       <c r="N16" s="25"/>
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="125"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="113"/>
       <c r="T16" s="24"/>
     </row>
     <row r="17" spans="1:20" ht="18.75">
-      <c r="A17" s="104"/>
-      <c r="B17" s="135" t="s">
+      <c r="A17" s="121"/>
+      <c r="B17" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="130" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="21"/>
@@ -17078,19 +17097,19 @@
       <c r="N17" s="20"/>
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
-      <c r="Q17" s="135" t="s">
+      <c r="Q17" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="136" t="s">
+      <c r="R17" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="125"/>
+      <c r="S17" s="113"/>
       <c r="T17" s="24"/>
     </row>
     <row r="18" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
@@ -17104,17 +17123,17 @@
       <c r="N18" s="25"/>
       <c r="O18" s="37"/>
       <c r="P18" s="38"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="125"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="113"/>
       <c r="T18" s="24"/>
     </row>
     <row r="19" spans="1:20" ht="18.75">
-      <c r="A19" s="104"/>
-      <c r="B19" s="135" t="s">
+      <c r="A19" s="121"/>
+      <c r="B19" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="130" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="21"/>
@@ -17130,19 +17149,19 @@
       <c r="N19" s="23"/>
       <c r="O19" s="38"/>
       <c r="P19" s="58"/>
-      <c r="Q19" s="135" t="s">
+      <c r="Q19" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="138" t="s">
+      <c r="R19" s="136" t="s">
         <v>30</v>
       </c>
       <c r="S19" s="59"/>
       <c r="T19" s="24"/>
     </row>
     <row r="20" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -17156,8 +17175,8 @@
       <c r="N20" s="27"/>
       <c r="O20" s="38"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="101"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="124"/>
       <c r="S20" s="59"/>
       <c r="T20" s="24"/>
     </row>
@@ -17184,13 +17203,13 @@
       <c r="T21" s="24"/>
     </row>
     <row r="22" spans="1:20" ht="38.25" thickTop="1">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="21"/>
@@ -17208,21 +17227,21 @@
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="98" t="s">
+      <c r="Q22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="100" t="s">
+      <c r="R22" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="132" t="s">
+      <c r="S22" s="146" t="s">
         <v>119</v>
       </c>
       <c r="T22" s="24"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26" t="s">
         <v>120</v>
@@ -17238,17 +17257,17 @@
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
       <c r="P23" s="27"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="125"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="113"/>
       <c r="T23" s="24"/>
     </row>
     <row r="24" spans="1:20" ht="18.75">
-      <c r="A24" s="104"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="21"/>
@@ -17264,19 +17283,19 @@
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="98" t="s">
+      <c r="Q24" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="100" t="s">
+      <c r="R24" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S24" s="125"/>
+      <c r="S24" s="113"/>
       <c r="T24" s="24"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -17290,17 +17309,17 @@
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
       <c r="P25" s="27"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="125"/>
+      <c r="Q25" s="119"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="113"/>
       <c r="T25" s="24"/>
     </row>
     <row r="26" spans="1:20" ht="18.75">
-      <c r="A26" s="104"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D26" s="21"/>
@@ -17316,19 +17335,19 @@
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="22"/>
-      <c r="Q26" s="98" t="s">
+      <c r="Q26" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="R26" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="S26" s="125"/>
+      <c r="S26" s="113"/>
       <c r="T26" s="24"/>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -17342,17 +17361,17 @@
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="27"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="125"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="124"/>
+      <c r="S27" s="113"/>
       <c r="T27" s="24"/>
     </row>
     <row r="28" spans="1:20" ht="56.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="121"/>
+      <c r="B28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="21"/>
@@ -17370,19 +17389,19 @@
       <c r="N28" s="20"/>
       <c r="O28" s="37"/>
       <c r="P28" s="22"/>
-      <c r="Q28" s="98" t="s">
+      <c r="Q28" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R28" s="100" t="s">
+      <c r="R28" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="S28" s="125"/>
+      <c r="S28" s="113"/>
       <c r="T28" s="24"/>
     </row>
     <row r="29" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A29" s="104"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
@@ -17398,17 +17417,17 @@
       <c r="N29" s="25"/>
       <c r="O29" s="38"/>
       <c r="P29" s="27"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="125"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="124"/>
+      <c r="S29" s="113"/>
       <c r="T29" s="24"/>
     </row>
     <row r="30" spans="1:20" ht="56.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="121"/>
+      <c r="B30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="21"/>
@@ -17426,19 +17445,19 @@
       <c r="N30" s="20"/>
       <c r="O30" s="37"/>
       <c r="P30" s="20"/>
-      <c r="Q30" s="98" t="s">
+      <c r="Q30" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R30" s="100" t="s">
+      <c r="R30" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="S30" s="125"/>
+      <c r="S30" s="113"/>
       <c r="T30" s="24"/>
     </row>
     <row r="31" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A31" s="104"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
@@ -17454,17 +17473,17 @@
       <c r="N31" s="25"/>
       <c r="O31" s="38"/>
       <c r="P31" s="25"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="125"/>
+      <c r="Q31" s="119"/>
+      <c r="R31" s="124"/>
+      <c r="S31" s="113"/>
       <c r="T31" s="24"/>
     </row>
     <row r="32" spans="1:20" ht="18.75">
-      <c r="A32" s="104"/>
-      <c r="B32" s="98" t="s">
+      <c r="A32" s="121"/>
+      <c r="B32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="21"/>
@@ -17480,19 +17499,19 @@
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
-      <c r="Q32" s="98" t="s">
+      <c r="Q32" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R32" s="100" t="s">
+      <c r="R32" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="S32" s="125"/>
+      <c r="S32" s="113"/>
       <c r="T32" s="24"/>
     </row>
     <row r="33" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A33" s="104"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
@@ -17506,17 +17525,17 @@
       <c r="N33" s="25"/>
       <c r="O33" s="25"/>
       <c r="P33" s="25"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="125"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="124"/>
+      <c r="S33" s="113"/>
       <c r="T33" s="24"/>
     </row>
     <row r="34" spans="1:20" ht="19.5">
-      <c r="A34" s="104"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D34" s="21"/>
@@ -17532,19 +17551,19 @@
       <c r="N34" s="64"/>
       <c r="O34" s="20"/>
       <c r="P34" s="64"/>
-      <c r="Q34" s="98" t="s">
+      <c r="Q34" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R34" s="102" t="s">
+      <c r="R34" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S34" s="62"/>
       <c r="T34" s="24"/>
     </row>
     <row r="35" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
       <c r="F35" s="26"/>
@@ -17558,8 +17577,8 @@
       <c r="N35" s="64"/>
       <c r="O35" s="25"/>
       <c r="P35" s="64"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="101"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="124"/>
       <c r="S35" s="62"/>
       <c r="T35" s="24"/>
     </row>
@@ -17586,13 +17605,13 @@
       <c r="T36" s="24"/>
     </row>
     <row r="37" spans="1:20" ht="23.25">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="21"/>
@@ -17608,19 +17627,19 @@
       <c r="N37" s="22"/>
       <c r="O37" s="55"/>
       <c r="P37" s="20"/>
-      <c r="Q37" s="98" t="s">
+      <c r="Q37" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="137" t="s">
+      <c r="R37" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="130"/>
+      <c r="S37" s="145"/>
       <c r="T37" s="45"/>
     </row>
     <row r="38" spans="1:20" ht="24" thickBot="1">
-      <c r="A38" s="104"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
@@ -17634,17 +17653,17 @@
       <c r="N38" s="27"/>
       <c r="O38" s="67"/>
       <c r="P38" s="25"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="126"/>
-      <c r="S38" s="108"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="114"/>
+      <c r="S38" s="116"/>
       <c r="T38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="37.5">
-      <c r="A39" s="104"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="121"/>
+      <c r="B39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="54"/>
@@ -17662,19 +17681,19 @@
       <c r="N39" s="22"/>
       <c r="O39" s="68"/>
       <c r="P39" s="20"/>
-      <c r="Q39" s="98" t="s">
+      <c r="Q39" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="137" t="s">
+      <c r="R39" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="S39" s="108"/>
+      <c r="S39" s="116"/>
       <c r="T39" s="45"/>
     </row>
     <row r="40" spans="1:20" ht="24" thickBot="1">
-      <c r="A40" s="104"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="56"/>
       <c r="E40" s="26" t="s">
         <v>127</v>
@@ -17690,17 +17709,17 @@
       <c r="N40" s="27"/>
       <c r="O40" s="67"/>
       <c r="P40" s="25"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="108"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="116"/>
       <c r="T40" s="45"/>
     </row>
     <row r="41" spans="1:20" ht="75">
-      <c r="A41" s="104"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="21"/>
@@ -17718,19 +17737,19 @@
       <c r="N41" s="22"/>
       <c r="O41" s="68"/>
       <c r="P41" s="22"/>
-      <c r="Q41" s="98" t="s">
+      <c r="Q41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R41" s="137" t="s">
+      <c r="R41" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="S41" s="108"/>
+      <c r="S41" s="116"/>
       <c r="T41" s="45"/>
     </row>
     <row r="42" spans="1:20" ht="24" thickBot="1">
-      <c r="A42" s="104"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26" t="s">
@@ -17746,17 +17765,17 @@
       <c r="N42" s="27"/>
       <c r="O42" s="67"/>
       <c r="P42" s="27"/>
-      <c r="Q42" s="99"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="108"/>
+      <c r="Q42" s="119"/>
+      <c r="R42" s="114"/>
+      <c r="S42" s="116"/>
       <c r="T42" s="45"/>
     </row>
     <row r="43" spans="1:20" ht="18.75">
-      <c r="A43" s="104"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="121"/>
+      <c r="B43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="21"/>
@@ -17772,19 +17791,19 @@
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
-      <c r="Q43" s="98" t="s">
+      <c r="Q43" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="102" t="s">
+      <c r="R43" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S43" s="62"/>
       <c r="T43" s="24"/>
     </row>
     <row r="44" spans="1:20" ht="36" customHeight="1" thickBot="1">
-      <c r="A44" s="104"/>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -17798,17 +17817,17 @@
       <c r="N44" s="25"/>
       <c r="O44" s="27"/>
       <c r="P44" s="27"/>
-      <c r="Q44" s="99"/>
-      <c r="R44" s="101"/>
+      <c r="Q44" s="119"/>
+      <c r="R44" s="124"/>
       <c r="S44" s="62"/>
       <c r="T44" s="24"/>
     </row>
     <row r="45" spans="1:20" ht="18.75">
-      <c r="A45" s="104"/>
-      <c r="B45" s="98" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D45" s="54"/>
@@ -17824,19 +17843,19 @@
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
       <c r="P45" s="20"/>
-      <c r="Q45" s="98" t="s">
+      <c r="Q45" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R45" s="100" t="s">
+      <c r="R45" s="123" t="s">
         <v>36</v>
       </c>
       <c r="S45" s="62"/>
       <c r="T45" s="24"/>
     </row>
     <row r="46" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A46" s="104"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="56"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -17850,17 +17869,17 @@
       <c r="N46" s="25"/>
       <c r="O46" s="27"/>
       <c r="P46" s="27"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="101"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="124"/>
       <c r="S46" s="62"/>
       <c r="T46" s="24"/>
     </row>
     <row r="47" spans="1:20" ht="18.75">
-      <c r="A47" s="104"/>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="21"/>
@@ -17876,21 +17895,21 @@
       <c r="N47" s="25"/>
       <c r="O47" s="20"/>
       <c r="P47" s="20"/>
-      <c r="Q47" s="98" t="s">
+      <c r="Q47" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R47" s="100" t="s">
+      <c r="R47" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S47" s="107" t="s">
+      <c r="S47" s="125" t="s">
         <v>26</v>
       </c>
       <c r="T47" s="24"/>
     </row>
     <row r="48" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -17904,17 +17923,17 @@
       <c r="N48" s="27"/>
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
-      <c r="Q48" s="99"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="108"/>
+      <c r="Q48" s="119"/>
+      <c r="R48" s="124"/>
+      <c r="S48" s="116"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:20" ht="18.75">
-      <c r="A49" s="104"/>
-      <c r="B49" s="98" t="s">
+      <c r="A49" s="121"/>
+      <c r="B49" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C49" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D49" s="21"/>
@@ -17930,19 +17949,19 @@
       <c r="N49" s="22"/>
       <c r="O49" s="20"/>
       <c r="P49" s="20"/>
-      <c r="Q49" s="98" t="s">
+      <c r="Q49" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R49" s="133" t="s">
+      <c r="R49" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="S49" s="108"/>
+      <c r="S49" s="116"/>
       <c r="T49" s="24"/>
     </row>
     <row r="50" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A50" s="99"/>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -17956,9 +17975,9 @@
       <c r="N50" s="27"/>
       <c r="O50" s="27"/>
       <c r="P50" s="27"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="134"/>
-      <c r="S50" s="108"/>
+      <c r="Q50" s="119"/>
+      <c r="R50" s="148"/>
+      <c r="S50" s="116"/>
       <c r="T50" s="24"/>
     </row>
     <row r="51" spans="1:20" ht="26.25" thickBot="1">
@@ -17980,17 +17999,17 @@
       <c r="P51" s="35"/>
       <c r="Q51" s="33"/>
       <c r="R51" s="66"/>
-      <c r="S51" s="108"/>
+      <c r="S51" s="116"/>
       <c r="T51" s="24"/>
     </row>
     <row r="52" spans="1:20" ht="18.75">
-      <c r="A52" s="146" t="s">
+      <c r="A52" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="133" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="21"/>
@@ -18006,19 +18025,19 @@
       <c r="N52" s="20"/>
       <c r="O52" s="68"/>
       <c r="P52" s="20"/>
-      <c r="Q52" s="98" t="s">
+      <c r="Q52" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R52" s="100" t="s">
+      <c r="R52" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S52" s="108"/>
+      <c r="S52" s="116"/>
       <c r="T52" s="24"/>
     </row>
     <row r="53" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A53" s="104"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="119"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
@@ -18032,17 +18051,17 @@
       <c r="N53" s="25"/>
       <c r="O53" s="25"/>
       <c r="P53" s="38"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="108"/>
+      <c r="Q53" s="119"/>
+      <c r="R53" s="124"/>
+      <c r="S53" s="116"/>
       <c r="T53" s="24"/>
     </row>
     <row r="54" spans="1:20" ht="18.75">
-      <c r="A54" s="104"/>
-      <c r="B54" s="131" t="s">
+      <c r="A54" s="121"/>
+      <c r="B54" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="133" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="21"/>
@@ -18058,19 +18077,19 @@
       <c r="N54" s="22"/>
       <c r="O54" s="68"/>
       <c r="P54" s="73"/>
-      <c r="Q54" s="98" t="s">
+      <c r="Q54" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R54" s="100" t="s">
+      <c r="R54" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S54" s="108"/>
+      <c r="S54" s="116"/>
       <c r="T54" s="24"/>
     </row>
     <row r="55" spans="1:20" ht="18.75">
-      <c r="A55" s="104"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="119"/>
+      <c r="C55" s="119"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -18084,17 +18103,17 @@
       <c r="N55" s="25"/>
       <c r="O55" s="25"/>
       <c r="P55" s="74"/>
-      <c r="Q55" s="99"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="108"/>
+      <c r="Q55" s="119"/>
+      <c r="R55" s="127"/>
+      <c r="S55" s="116"/>
       <c r="T55" s="29"/>
     </row>
     <row r="56" spans="1:20" ht="75">
-      <c r="A56" s="104"/>
-      <c r="B56" s="131" t="s">
+      <c r="A56" s="121"/>
+      <c r="B56" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="133" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="21"/>
@@ -18112,19 +18131,19 @@
       <c r="N56" s="20"/>
       <c r="O56" s="20"/>
       <c r="P56" s="75"/>
-      <c r="Q56" s="98" t="s">
+      <c r="Q56" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R56" s="105" t="s">
+      <c r="R56" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="S56" s="108"/>
+      <c r="S56" s="116"/>
       <c r="T56" s="29"/>
     </row>
     <row r="57" spans="1:20" ht="18.75">
-      <c r="A57" s="104"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
+      <c r="A57" s="121"/>
+      <c r="B57" s="119"/>
+      <c r="C57" s="119"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26" t="s">
@@ -18140,17 +18159,17 @@
       <c r="N57" s="25"/>
       <c r="O57" s="26"/>
       <c r="P57" s="74"/>
-      <c r="Q57" s="99"/>
-      <c r="R57" s="99"/>
-      <c r="S57" s="108"/>
+      <c r="Q57" s="119"/>
+      <c r="R57" s="119"/>
+      <c r="S57" s="116"/>
       <c r="T57" s="29"/>
     </row>
     <row r="58" spans="1:20" ht="37.5">
-      <c r="A58" s="104"/>
-      <c r="B58" s="131" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="21"/>
@@ -18168,19 +18187,19 @@
       <c r="N58" s="20"/>
       <c r="O58" s="20"/>
       <c r="P58" s="75"/>
-      <c r="Q58" s="98" t="s">
+      <c r="Q58" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R58" s="105" t="s">
+      <c r="R58" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="S58" s="108"/>
+      <c r="S58" s="116"/>
       <c r="T58" s="29"/>
     </row>
     <row r="59" spans="1:20" ht="18.75">
-      <c r="A59" s="104"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
+      <c r="A59" s="121"/>
+      <c r="B59" s="119"/>
+      <c r="C59" s="119"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26" t="s">
         <v>127</v>
@@ -18196,17 +18215,17 @@
       <c r="N59" s="25"/>
       <c r="O59" s="26"/>
       <c r="P59" s="74"/>
-      <c r="Q59" s="99"/>
-      <c r="R59" s="99"/>
-      <c r="S59" s="108"/>
+      <c r="Q59" s="119"/>
+      <c r="R59" s="119"/>
+      <c r="S59" s="116"/>
       <c r="T59" s="29"/>
     </row>
     <row r="60" spans="1:20" ht="18.75">
-      <c r="A60" s="104"/>
-      <c r="B60" s="131" t="s">
+      <c r="A60" s="121"/>
+      <c r="B60" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C60" s="131" t="s">
+      <c r="C60" s="133" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="21"/>
@@ -18222,19 +18241,19 @@
       <c r="N60" s="20"/>
       <c r="O60" s="20"/>
       <c r="P60" s="20"/>
-      <c r="Q60" s="98" t="s">
+      <c r="Q60" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R60" s="105" t="s">
+      <c r="R60" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="S60" s="108"/>
+      <c r="S60" s="116"/>
       <c r="T60" s="29"/>
     </row>
     <row r="61" spans="1:20" ht="18.75">
-      <c r="A61" s="104"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="119"/>
+      <c r="C61" s="119"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
@@ -18248,17 +18267,17 @@
       <c r="N61" s="25"/>
       <c r="O61" s="25"/>
       <c r="P61" s="25"/>
-      <c r="Q61" s="99"/>
-      <c r="R61" s="99"/>
-      <c r="S61" s="108"/>
+      <c r="Q61" s="119"/>
+      <c r="R61" s="119"/>
+      <c r="S61" s="116"/>
       <c r="T61" s="29"/>
     </row>
     <row r="62" spans="1:20" ht="18.75">
-      <c r="A62" s="104"/>
-      <c r="B62" s="131" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="131" t="s">
+      <c r="C62" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D62" s="26"/>
@@ -18274,21 +18293,21 @@
       <c r="N62" s="20"/>
       <c r="O62" s="20"/>
       <c r="P62" s="20"/>
-      <c r="Q62" s="98" t="s">
+      <c r="Q62" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="105" t="s">
+      <c r="R62" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="S62" s="106" t="s">
+      <c r="S62" s="128" t="s">
         <v>58</v>
       </c>
       <c r="T62" s="29"/>
     </row>
     <row r="63" spans="1:20" ht="18.75">
-      <c r="A63" s="104"/>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="119"/>
+      <c r="C63" s="119"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
       <c r="F63" s="30"/>
@@ -18302,17 +18321,17 @@
       <c r="N63" s="25"/>
       <c r="O63" s="25"/>
       <c r="P63" s="25"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="104"/>
+      <c r="Q63" s="119"/>
+      <c r="R63" s="119"/>
+      <c r="S63" s="121"/>
       <c r="T63" s="24"/>
     </row>
     <row r="64" spans="1:20" ht="18.75">
-      <c r="A64" s="104"/>
-      <c r="B64" s="131" t="s">
+      <c r="A64" s="121"/>
+      <c r="B64" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="131" t="s">
+      <c r="C64" s="133" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="26"/>
@@ -18328,19 +18347,19 @@
       <c r="N64" s="20"/>
       <c r="O64" s="20"/>
       <c r="P64" s="20"/>
-      <c r="Q64" s="98" t="s">
+      <c r="Q64" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R64" s="102" t="s">
+      <c r="R64" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="S64" s="104"/>
+      <c r="S64" s="121"/>
       <c r="T64" s="24"/>
     </row>
     <row r="65" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A65" s="99"/>
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
+      <c r="A65" s="119"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
       <c r="D65" s="21"/>
       <c r="E65" s="26"/>
       <c r="F65" s="21"/>
@@ -18354,9 +18373,9 @@
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
       <c r="P65" s="25"/>
-      <c r="Q65" s="99"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="104"/>
+      <c r="Q65" s="119"/>
+      <c r="R65" s="124"/>
+      <c r="S65" s="121"/>
       <c r="T65" s="24"/>
     </row>
     <row r="66" spans="1:20" ht="26.25" thickBot="1">
@@ -18378,17 +18397,17 @@
       <c r="P66" s="80"/>
       <c r="Q66" s="33"/>
       <c r="R66" s="50"/>
-      <c r="S66" s="104"/>
+      <c r="S66" s="121"/>
       <c r="T66" s="24"/>
     </row>
     <row r="67" spans="1:20" ht="18.75">
-      <c r="A67" s="146" t="s">
+      <c r="A67" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="133" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="21"/>
@@ -18404,19 +18423,19 @@
       <c r="N67" s="20"/>
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
-      <c r="Q67" s="98" t="s">
+      <c r="Q67" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R67" s="100" t="s">
+      <c r="R67" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="S67" s="104"/>
+      <c r="S67" s="121"/>
       <c r="T67" s="24"/>
     </row>
     <row r="68" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A68" s="104"/>
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="119"/>
+      <c r="C68" s="119"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="21"/>
@@ -18430,17 +18449,17 @@
       <c r="N68" s="25"/>
       <c r="O68" s="25"/>
       <c r="P68" s="25"/>
-      <c r="Q68" s="99"/>
-      <c r="R68" s="101"/>
-      <c r="S68" s="104"/>
+      <c r="Q68" s="119"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="121"/>
       <c r="T68" s="24"/>
     </row>
     <row r="69" spans="1:20" ht="56.25">
-      <c r="A69" s="104"/>
-      <c r="B69" s="131" t="s">
+      <c r="A69" s="121"/>
+      <c r="B69" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="131" t="s">
+      <c r="C69" s="133" t="s">
         <v>32</v>
       </c>
       <c r="D69" s="21"/>
@@ -18458,19 +18477,19 @@
       <c r="N69" s="20"/>
       <c r="O69" s="68"/>
       <c r="P69" s="37"/>
-      <c r="Q69" s="98" t="s">
+      <c r="Q69" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R69" s="100" t="s">
+      <c r="R69" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="S69" s="104"/>
+      <c r="S69" s="121"/>
       <c r="T69" s="24"/>
     </row>
     <row r="70" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A70" s="104"/>
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="119"/>
+      <c r="C70" s="119"/>
       <c r="D70" s="26"/>
       <c r="E70" s="67" t="s">
         <v>65</v>
@@ -18486,17 +18505,17 @@
       <c r="N70" s="25"/>
       <c r="O70" s="25"/>
       <c r="P70" s="38"/>
-      <c r="Q70" s="99"/>
-      <c r="R70" s="101"/>
-      <c r="S70" s="99"/>
+      <c r="Q70" s="119"/>
+      <c r="R70" s="124"/>
+      <c r="S70" s="119"/>
       <c r="T70" s="24"/>
     </row>
     <row r="71" spans="1:20" ht="69">
-      <c r="A71" s="104"/>
-      <c r="B71" s="131" t="s">
+      <c r="A71" s="121"/>
+      <c r="B71" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="131" t="s">
+      <c r="C71" s="133" t="s">
         <v>40</v>
       </c>
       <c r="D71" s="21"/>
@@ -18512,10 +18531,10 @@
       <c r="N71" s="20"/>
       <c r="O71" s="68"/>
       <c r="P71" s="37"/>
-      <c r="Q71" s="98" t="s">
+      <c r="Q71" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R71" s="100" t="s">
+      <c r="R71" s="123" t="s">
         <v>43</v>
       </c>
       <c r="S71" s="49" t="s">
@@ -18524,9 +18543,9 @@
       <c r="T71" s="24"/>
     </row>
     <row r="72" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A72" s="104"/>
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="119"/>
+      <c r="C72" s="119"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -18540,17 +18559,17 @@
       <c r="N72" s="25"/>
       <c r="O72" s="67"/>
       <c r="P72" s="38"/>
-      <c r="Q72" s="99"/>
-      <c r="R72" s="101"/>
+      <c r="Q72" s="119"/>
+      <c r="R72" s="124"/>
       <c r="S72" s="40"/>
       <c r="T72" s="24"/>
     </row>
     <row r="73" spans="1:20" ht="56.25">
-      <c r="A73" s="104"/>
-      <c r="B73" s="131" t="s">
+      <c r="A73" s="121"/>
+      <c r="B73" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="131" t="s">
+      <c r="C73" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="21"/>
@@ -18568,19 +18587,19 @@
       <c r="N73" s="20"/>
       <c r="O73" s="68"/>
       <c r="P73" s="37"/>
-      <c r="Q73" s="98" t="s">
+      <c r="Q73" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R73" s="100" t="s">
+      <c r="R73" s="123" t="s">
         <v>49</v>
       </c>
       <c r="S73" s="40"/>
       <c r="T73" s="24"/>
     </row>
     <row r="74" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A74" s="104"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="119"/>
+      <c r="C74" s="119"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="56"/>
@@ -18596,17 +18615,17 @@
       <c r="N74" s="25"/>
       <c r="O74" s="67"/>
       <c r="P74" s="38"/>
-      <c r="Q74" s="99"/>
-      <c r="R74" s="101"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="124"/>
       <c r="S74" s="40"/>
       <c r="T74" s="24"/>
     </row>
     <row r="75" spans="1:20" ht="19.5">
-      <c r="A75" s="104"/>
-      <c r="B75" s="131" t="s">
+      <c r="A75" s="121"/>
+      <c r="B75" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C75" s="131" t="s">
+      <c r="C75" s="133" t="s">
         <v>52</v>
       </c>
       <c r="D75" s="81"/>
@@ -18622,19 +18641,19 @@
       <c r="N75" s="44"/>
       <c r="O75" s="20"/>
       <c r="P75" s="37"/>
-      <c r="Q75" s="98" t="s">
+      <c r="Q75" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R75" s="100" t="s">
+      <c r="R75" s="123" t="s">
         <v>54</v>
       </c>
       <c r="S75" s="40"/>
       <c r="T75" s="24"/>
     </row>
     <row r="76" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A76" s="104"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
+      <c r="A76" s="121"/>
+      <c r="B76" s="119"/>
+      <c r="C76" s="119"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -18648,17 +18667,17 @@
       <c r="N76" s="25"/>
       <c r="O76" s="25"/>
       <c r="P76" s="38"/>
-      <c r="Q76" s="99"/>
-      <c r="R76" s="101"/>
+      <c r="Q76" s="119"/>
+      <c r="R76" s="124"/>
       <c r="S76" s="40"/>
       <c r="T76" s="24"/>
     </row>
     <row r="77" spans="1:20" ht="18.75">
-      <c r="A77" s="104"/>
-      <c r="B77" s="131" t="s">
+      <c r="A77" s="121"/>
+      <c r="B77" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="C77" s="131" t="s">
+      <c r="C77" s="133" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="21"/>
@@ -18674,19 +18693,19 @@
       <c r="N77" s="20"/>
       <c r="O77" s="20"/>
       <c r="P77" s="20"/>
-      <c r="Q77" s="98" t="s">
+      <c r="Q77" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R77" s="100" t="s">
+      <c r="R77" s="123" t="s">
         <v>57</v>
       </c>
       <c r="S77" s="40"/>
       <c r="T77" s="24"/>
     </row>
     <row r="78" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A78" s="104"/>
-      <c r="B78" s="99"/>
-      <c r="C78" s="99"/>
+      <c r="A78" s="121"/>
+      <c r="B78" s="119"/>
+      <c r="C78" s="119"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
@@ -18700,17 +18719,17 @@
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
       <c r="P78" s="25"/>
-      <c r="Q78" s="99"/>
-      <c r="R78" s="101"/>
+      <c r="Q78" s="119"/>
+      <c r="R78" s="124"/>
       <c r="S78" s="40"/>
       <c r="T78" s="24"/>
     </row>
     <row r="79" spans="1:20" ht="18.75">
-      <c r="A79" s="104"/>
-      <c r="B79" s="131" t="s">
+      <c r="A79" s="121"/>
+      <c r="B79" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="133" t="s">
         <v>60</v>
       </c>
       <c r="D79" s="20"/>
@@ -18726,19 +18745,19 @@
       <c r="N79" s="20"/>
       <c r="O79" s="20"/>
       <c r="P79" s="20"/>
-      <c r="Q79" s="98" t="s">
+      <c r="Q79" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R79" s="102" t="s">
+      <c r="R79" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S79" s="40"/>
       <c r="T79" s="24"/>
     </row>
     <row r="80" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A80" s="99"/>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
+      <c r="A80" s="119"/>
+      <c r="B80" s="119"/>
+      <c r="C80" s="119"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="25"/>
@@ -18752,8 +18771,8 @@
       <c r="N80" s="25"/>
       <c r="O80" s="25"/>
       <c r="P80" s="25"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="101"/>
+      <c r="Q80" s="119"/>
+      <c r="R80" s="124"/>
       <c r="S80" s="40"/>
       <c r="T80" s="24"/>
     </row>
@@ -18780,13 +18799,13 @@
       <c r="T81" s="24"/>
     </row>
     <row r="82" spans="1:20" ht="23.25">
-      <c r="A82" s="103" t="s">
+      <c r="A82" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B82" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="C82" s="98" t="s">
+      <c r="C82" s="122" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="20"/>
@@ -18802,19 +18821,19 @@
       <c r="N82" s="20"/>
       <c r="O82" s="44"/>
       <c r="P82" s="20"/>
-      <c r="Q82" s="98" t="s">
+      <c r="Q82" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="R82" s="100" t="s">
+      <c r="R82" s="123" t="s">
         <v>30</v>
       </c>
       <c r="S82" s="45"/>
       <c r="T82" s="24"/>
     </row>
     <row r="83" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A83" s="104"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
+      <c r="A83" s="121"/>
+      <c r="B83" s="119"/>
+      <c r="C83" s="119"/>
       <c r="D83" s="25"/>
       <c r="E83" s="37"/>
       <c r="F83" s="25"/>
@@ -18828,16 +18847,16 @@
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
       <c r="P83" s="25"/>
-      <c r="Q83" s="99"/>
-      <c r="R83" s="101"/>
+      <c r="Q83" s="119"/>
+      <c r="R83" s="124"/>
       <c r="T83" s="24"/>
     </row>
     <row r="84" spans="1:20" ht="19.5">
-      <c r="A84" s="104"/>
-      <c r="B84" s="98" t="s">
+      <c r="A84" s="121"/>
+      <c r="B84" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="98" t="s">
+      <c r="C84" s="122" t="s">
         <v>32</v>
       </c>
       <c r="D84" s="20"/>
@@ -18853,18 +18872,18 @@
       <c r="N84" s="20"/>
       <c r="O84" s="44"/>
       <c r="P84" s="20"/>
-      <c r="Q84" s="98" t="s">
+      <c r="Q84" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="R84" s="100" t="s">
+      <c r="R84" s="123" t="s">
         <v>36</v>
       </c>
       <c r="T84" s="24"/>
     </row>
     <row r="85" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A85" s="104"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="99"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
       <c r="D85" s="25"/>
       <c r="E85" s="20"/>
       <c r="F85" s="25"/>
@@ -18878,16 +18897,16 @@
       <c r="N85" s="25"/>
       <c r="O85" s="25"/>
       <c r="P85" s="25"/>
-      <c r="Q85" s="99"/>
-      <c r="R85" s="101"/>
+      <c r="Q85" s="119"/>
+      <c r="R85" s="124"/>
       <c r="T85" s="24"/>
     </row>
     <row r="86" spans="1:20" ht="69">
-      <c r="A86" s="104"/>
-      <c r="B86" s="98" t="s">
+      <c r="A86" s="121"/>
+      <c r="B86" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="98" t="s">
+      <c r="C86" s="122" t="s">
         <v>40</v>
       </c>
       <c r="D86" s="20"/>
@@ -18903,10 +18922,10 @@
       <c r="N86" s="20"/>
       <c r="O86" s="44"/>
       <c r="P86" s="20"/>
-      <c r="Q86" s="98" t="s">
+      <c r="Q86" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="R86" s="100" t="s">
+      <c r="R86" s="123" t="s">
         <v>43</v>
       </c>
       <c r="S86" s="49" t="s">
@@ -18915,9 +18934,9 @@
       <c r="T86" s="24"/>
     </row>
     <row r="87" spans="1:20" ht="20.25" thickBot="1">
-      <c r="A87" s="104"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="99"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="119"/>
+      <c r="C87" s="119"/>
       <c r="D87" s="25"/>
       <c r="E87" s="44"/>
       <c r="F87" s="25"/>
@@ -18931,17 +18950,17 @@
       <c r="N87" s="25"/>
       <c r="O87" s="25"/>
       <c r="P87" s="25"/>
-      <c r="Q87" s="99"/>
-      <c r="R87" s="101"/>
+      <c r="Q87" s="119"/>
+      <c r="R87" s="124"/>
       <c r="S87" s="40"/>
       <c r="T87" s="24"/>
     </row>
     <row r="88" spans="1:20" ht="19.5">
-      <c r="A88" s="104"/>
-      <c r="B88" s="98" t="s">
+      <c r="A88" s="121"/>
+      <c r="B88" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="122" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="20"/>
@@ -18957,19 +18976,19 @@
       <c r="N88" s="20"/>
       <c r="O88" s="44"/>
       <c r="P88" s="20"/>
-      <c r="Q88" s="98" t="s">
+      <c r="Q88" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="R88" s="100" t="s">
+      <c r="R88" s="123" t="s">
         <v>49</v>
       </c>
       <c r="S88" s="40"/>
       <c r="T88" s="24"/>
     </row>
     <row r="89" spans="1:20" ht="20.25" thickBot="1">
-      <c r="A89" s="104"/>
-      <c r="B89" s="99"/>
-      <c r="C89" s="99"/>
+      <c r="A89" s="121"/>
+      <c r="B89" s="119"/>
+      <c r="C89" s="119"/>
       <c r="D89" s="25"/>
       <c r="E89" s="44"/>
       <c r="F89" s="25"/>
@@ -18983,17 +19002,17 @@
       <c r="N89" s="25"/>
       <c r="O89" s="25"/>
       <c r="P89" s="25"/>
-      <c r="Q89" s="99"/>
-      <c r="R89" s="101"/>
+      <c r="Q89" s="119"/>
+      <c r="R89" s="124"/>
       <c r="S89" s="40"/>
       <c r="T89" s="24"/>
     </row>
     <row r="90" spans="1:20" ht="19.5">
-      <c r="A90" s="104"/>
-      <c r="B90" s="98" t="s">
+      <c r="A90" s="121"/>
+      <c r="B90" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="122" t="s">
         <v>52</v>
       </c>
       <c r="D90" s="20"/>
@@ -19009,19 +19028,19 @@
       <c r="N90" s="44"/>
       <c r="O90" s="44"/>
       <c r="P90" s="20"/>
-      <c r="Q90" s="98" t="s">
+      <c r="Q90" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="R90" s="100" t="s">
+      <c r="R90" s="123" t="s">
         <v>54</v>
       </c>
       <c r="S90" s="40"/>
       <c r="T90" s="24"/>
     </row>
     <row r="91" spans="1:20" ht="20.25" thickBot="1">
-      <c r="A91" s="104"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
       <c r="D91" s="25"/>
       <c r="E91" s="44"/>
       <c r="F91" s="20"/>
@@ -19035,17 +19054,17 @@
       <c r="N91" s="25"/>
       <c r="O91" s="25"/>
       <c r="P91" s="25"/>
-      <c r="Q91" s="99"/>
-      <c r="R91" s="101"/>
+      <c r="Q91" s="119"/>
+      <c r="R91" s="124"/>
       <c r="S91" s="40"/>
       <c r="T91" s="24"/>
     </row>
     <row r="92" spans="1:20" ht="18.75">
-      <c r="A92" s="104"/>
-      <c r="B92" s="98" t="s">
+      <c r="A92" s="121"/>
+      <c r="B92" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="98" t="s">
+      <c r="C92" s="122" t="s">
         <v>56</v>
       </c>
       <c r="D92" s="20"/>
@@ -19061,19 +19080,19 @@
       <c r="N92" s="20"/>
       <c r="O92" s="20"/>
       <c r="P92" s="20"/>
-      <c r="Q92" s="98" t="s">
+      <c r="Q92" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="R92" s="100" t="s">
+      <c r="R92" s="123" t="s">
         <v>57</v>
       </c>
       <c r="S92" s="40"/>
       <c r="T92" s="24"/>
     </row>
     <row r="93" spans="1:20" ht="19.5" thickBot="1">
-      <c r="A93" s="104"/>
-      <c r="B93" s="99"/>
-      <c r="C93" s="99"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="119"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
@@ -19087,17 +19106,17 @@
       <c r="N93" s="25"/>
       <c r="O93" s="25"/>
       <c r="P93" s="25"/>
-      <c r="Q93" s="99"/>
-      <c r="R93" s="101"/>
+      <c r="Q93" s="119"/>
+      <c r="R93" s="124"/>
       <c r="S93" s="40"/>
       <c r="T93" s="24"/>
     </row>
     <row r="94" spans="1:20" ht="19.5">
-      <c r="A94" s="104"/>
-      <c r="B94" s="98" t="s">
+      <c r="A94" s="121"/>
+      <c r="B94" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C94" s="98" t="s">
+      <c r="C94" s="122" t="s">
         <v>60</v>
       </c>
       <c r="D94" s="20"/>
@@ -19113,19 +19132,19 @@
       <c r="N94" s="44"/>
       <c r="O94" s="20"/>
       <c r="P94" s="20"/>
-      <c r="Q94" s="98" t="s">
+      <c r="Q94" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="R94" s="102" t="s">
+      <c r="R94" s="129" t="s">
         <v>30</v>
       </c>
       <c r="S94" s="40"/>
       <c r="T94" s="24"/>
     </row>
     <row r="95" spans="1:20" ht="36" customHeight="1" thickBot="1">
-      <c r="A95" s="99"/>
-      <c r="B95" s="99"/>
-      <c r="C95" s="99"/>
+      <c r="A95" s="119"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="119"/>
       <c r="D95" s="20"/>
       <c r="E95" s="20"/>
       <c r="F95" s="20"/>
@@ -19139,8 +19158,8 @@
       <c r="N95" s="25"/>
       <c r="O95" s="25"/>
       <c r="P95" s="25"/>
-      <c r="Q95" s="99"/>
-      <c r="R95" s="101"/>
+      <c r="Q95" s="119"/>
+      <c r="R95" s="124"/>
       <c r="S95" s="40"/>
       <c r="T95" s="24"/>
     </row>
@@ -23540,11 +23559,173 @@
     </row>
   </sheetData>
   <mergeCells count="191">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:N2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="A7:A20"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="S22:S33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="A37:A50"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="Q37:Q38"/>
+    <mergeCell ref="R37:R38"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S37:S42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S47:S61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="R49:R50"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="A52:A65"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A67:A80"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="Q67:Q68"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="R60:R61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="Q69:Q70"/>
+    <mergeCell ref="R69:R70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:R72"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="Q79:Q80"/>
     <mergeCell ref="R86:R87"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="Q88:Q89"/>
     <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S62:S70"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="Q77:Q78"/>
+    <mergeCell ref="R77:R78"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="R75:R76"/>
     <mergeCell ref="A82:A95"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
@@ -23569,168 +23750,6 @@
     <mergeCell ref="R92:R93"/>
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="R75:R76"/>
-    <mergeCell ref="S62:S70"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="Q77:Q78"/>
-    <mergeCell ref="R77:R78"/>
-    <mergeCell ref="A67:A80"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="Q67:Q68"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="Q60:Q61"/>
-    <mergeCell ref="R60:R61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="Q69:Q70"/>
-    <mergeCell ref="R69:R70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:R72"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="Q79:Q80"/>
-    <mergeCell ref="A52:A65"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="Q52:Q53"/>
-    <mergeCell ref="R52:R53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="Q54:Q55"/>
-    <mergeCell ref="R54:R55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="S47:S61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="Q58:Q59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="S37:S42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="Q39:Q40"/>
-    <mergeCell ref="R39:R40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="R41:R42"/>
-    <mergeCell ref="A37:A50"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="Q37:Q38"/>
-    <mergeCell ref="R37:R38"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="Q22:Q23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="S22:S33"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="A7:A20"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:N2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
